--- a/Dashboard_Lista de tareas 2025.xlsx
+++ b/Dashboard_Lista de tareas 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warehousing.sharepoint.com/sites/Operaciones/Documentos compartidos/001 CONTROL STOCK/Herramientas de control stock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C148BF5-BC71-45FD-9C93-DE9E30B350C7}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{225D2EE5-A2C3-4B5D-A4D3-E40D42EFAA47}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="598" xr2:uid="{CB3C9A90-1F93-464E-864E-5F940A5938F4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5450" uniqueCount="613">
   <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
@@ -1871,17 +1871,27 @@
   </si>
   <si>
     <t>WH12102022.3192</t>
+  </si>
+  <si>
+    <t>WH12102022.3193</t>
+  </si>
+  <si>
+    <t>WH12102022.3193_2</t>
+  </si>
+  <si>
+    <t>WH12102022.3194</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2013,12 +2023,13 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="2" xr:uid="{96AA2D41-F00C-45D4-BB6D-C315216FF078}"/>
@@ -2496,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
-  <dimension ref="A1:T541"/>
+  <dimension ref="A1:T544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36044,6 +36055,192 @@
         <v>609</v>
       </c>
       <c r="T541" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="542" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A542" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="B542" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C542" s="5">
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="D542" t="s">
+        <v>36</v>
+      </c>
+      <c r="E542" t="s">
+        <v>70</v>
+      </c>
+      <c r="F542">
+        <v>52</v>
+      </c>
+      <c r="G542">
+        <v>52</v>
+      </c>
+      <c r="H542">
+        <v>52</v>
+      </c>
+      <c r="I542">
+        <v>52</v>
+      </c>
+      <c r="J542" t="s">
+        <v>433</v>
+      </c>
+      <c r="K542" t="s">
+        <v>55</v>
+      </c>
+      <c r="L542" t="s">
+        <v>85</v>
+      </c>
+      <c r="M542" s="3">
+        <v>45874</v>
+      </c>
+      <c r="N542" s="3">
+        <v>45874</v>
+      </c>
+      <c r="O542" s="4">
+        <v>1</v>
+      </c>
+      <c r="P542" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q542" t="s">
+        <v>67</v>
+      </c>
+      <c r="R542" t="s">
+        <v>89</v>
+      </c>
+      <c r="S542" t="s">
+        <v>610</v>
+      </c>
+      <c r="T542" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="543" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A543" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="B543" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C543" s="5">
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="D543" t="s">
+        <v>36</v>
+      </c>
+      <c r="E543" t="s">
+        <v>70</v>
+      </c>
+      <c r="F543">
+        <v>52</v>
+      </c>
+      <c r="G543">
+        <v>52</v>
+      </c>
+      <c r="H543">
+        <v>52</v>
+      </c>
+      <c r="I543">
+        <v>52</v>
+      </c>
+      <c r="J543" t="s">
+        <v>432</v>
+      </c>
+      <c r="K543" t="s">
+        <v>55</v>
+      </c>
+      <c r="L543" t="s">
+        <v>85</v>
+      </c>
+      <c r="M543" s="3">
+        <v>45874</v>
+      </c>
+      <c r="N543" s="3">
+        <v>45874</v>
+      </c>
+      <c r="O543" s="4">
+        <v>1</v>
+      </c>
+      <c r="P543" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q543" t="s">
+        <v>67</v>
+      </c>
+      <c r="R543" t="s">
+        <v>89</v>
+      </c>
+      <c r="S543" t="s">
+        <v>611</v>
+      </c>
+      <c r="T543" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A544" s="5">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="B544" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C544" s="5">
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="D544" t="s">
+        <v>29</v>
+      </c>
+      <c r="E544" t="s">
+        <v>52</v>
+      </c>
+      <c r="F544">
+        <v>284</v>
+      </c>
+      <c r="G544">
+        <v>227.20000000000002</v>
+      </c>
+      <c r="H544">
+        <v>30</v>
+      </c>
+      <c r="I544">
+        <v>24</v>
+      </c>
+      <c r="J544" t="s">
+        <v>433</v>
+      </c>
+      <c r="K544" t="s">
+        <v>55</v>
+      </c>
+      <c r="L544" t="s">
+        <v>85</v>
+      </c>
+      <c r="M544" s="3">
+        <v>45874</v>
+      </c>
+      <c r="N544" s="3">
+        <v>45874</v>
+      </c>
+      <c r="O544" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P544" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q544" t="s">
+        <v>67</v>
+      </c>
+      <c r="R544" t="s">
+        <v>89</v>
+      </c>
+      <c r="S544" t="s">
+        <v>612</v>
+      </c>
+      <c r="T544" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Dashboard_Lista de tareas 2025.xlsx
+++ b/Dashboard_Lista de tareas 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warehousing.sharepoint.com/sites/Operaciones/Documentos compartidos/001 CONTROL STOCK/Herramientas de control stock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C290D802-FCEF-43F1-B0BF-6626CC35B699}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9736B22-4B19-47AE-86F1-9C03E02B2067}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="598" xr2:uid="{CB3C9A90-1F93-464E-864E-5F940A5938F4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="640">
   <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
@@ -1928,6 +1928,39 @@
   </si>
   <si>
     <t>Anglo American Sur S.A.(Los Bronces) - DHL</t>
+  </si>
+  <si>
+    <t>WH12102022.3197</t>
+  </si>
+  <si>
+    <t>WH12102022.3198</t>
+  </si>
+  <si>
+    <t>WH12102022.3199</t>
+  </si>
+  <si>
+    <t>WH12102022.3200</t>
+  </si>
+  <si>
+    <t>WH12102022.3201</t>
+  </si>
+  <si>
+    <t>LUBRICANTES Y SERVICIOS BEL-RAY CHILE LTDA</t>
+  </si>
+  <si>
+    <t>WAC COATINGS SpA</t>
+  </si>
+  <si>
+    <t>WH12102022.3202</t>
+  </si>
+  <si>
+    <t>EMASA CHILE SPA</t>
+  </si>
+  <si>
+    <t>COMERCIAL ATOQUIMICA SPA</t>
+  </si>
+  <si>
+    <t>Abierto</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
-  <dimension ref="A1:T569"/>
+  <dimension ref="A1:T592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="M547" sqref="M547:N569"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="O547" sqref="O547:O592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36417,13 +36450,13 @@
       </c>
     </row>
     <row r="547" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A547" s="5">
+      <c r="A547" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C547" s="5">
+      <c r="C547" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D547" t="s">
@@ -36459,7 +36492,7 @@
       <c r="N547" s="3">
         <v>45875</v>
       </c>
-      <c r="O547">
+      <c r="O547" s="4">
         <v>1</v>
       </c>
       <c r="P547" t="s">
@@ -36479,13 +36512,13 @@
       </c>
     </row>
     <row r="548" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A548" s="5">
+      <c r="A548" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C548" s="5">
+      <c r="C548" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D548" t="s">
@@ -36521,7 +36554,7 @@
       <c r="N548" s="3">
         <v>45875</v>
       </c>
-      <c r="O548">
+      <c r="O548" s="4">
         <v>1</v>
       </c>
       <c r="P548" t="s">
@@ -36541,13 +36574,13 @@
       </c>
     </row>
     <row r="549" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A549" s="5">
+      <c r="A549" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B549" s="5">
+      <c r="B549" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C549" s="5">
+      <c r="C549" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D549" t="s">
@@ -36583,7 +36616,7 @@
       <c r="N549" s="3">
         <v>45875</v>
       </c>
-      <c r="O549">
+      <c r="O549" s="4">
         <v>1</v>
       </c>
       <c r="P549" t="s">
@@ -36603,13 +36636,13 @@
       </c>
     </row>
     <row r="550" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A550" s="5">
+      <c r="A550" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B550" s="5">
+      <c r="B550" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C550" s="5">
+      <c r="C550" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D550" t="s">
@@ -36645,7 +36678,7 @@
       <c r="N550" s="3">
         <v>45875</v>
       </c>
-      <c r="O550">
+      <c r="O550" s="4">
         <v>1</v>
       </c>
       <c r="P550" t="s">
@@ -36665,13 +36698,13 @@
       </c>
     </row>
     <row r="551" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A551" s="5">
+      <c r="A551" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B551" s="5">
+      <c r="B551" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C551" s="5">
+      <c r="C551" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D551" t="s">
@@ -36707,7 +36740,7 @@
       <c r="N551" s="3">
         <v>45875</v>
       </c>
-      <c r="O551">
+      <c r="O551" s="4">
         <v>1</v>
       </c>
       <c r="P551" t="s">
@@ -36727,13 +36760,13 @@
       </c>
     </row>
     <row r="552" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A552" s="5">
+      <c r="A552" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B552" s="5">
+      <c r="B552" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C552" s="5">
+      <c r="C552" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D552" t="s">
@@ -36769,7 +36802,7 @@
       <c r="N552" s="3">
         <v>45875</v>
       </c>
-      <c r="O552">
+      <c r="O552" s="4">
         <v>1</v>
       </c>
       <c r="P552" t="s">
@@ -36789,13 +36822,13 @@
       </c>
     </row>
     <row r="553" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A553" s="5">
+      <c r="A553" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B553" s="5">
+      <c r="B553" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C553" s="5">
+      <c r="C553" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D553" t="s">
@@ -36831,7 +36864,7 @@
       <c r="N553" s="3">
         <v>45875</v>
       </c>
-      <c r="O553">
+      <c r="O553" s="4">
         <v>1</v>
       </c>
       <c r="P553" t="s">
@@ -36851,13 +36884,13 @@
       </c>
     </row>
     <row r="554" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A554" s="5">
+      <c r="A554" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B554" s="5">
+      <c r="B554" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C554" s="5">
+      <c r="C554" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D554" t="s">
@@ -36893,7 +36926,7 @@
       <c r="N554" s="3">
         <v>45875</v>
       </c>
-      <c r="O554">
+      <c r="O554" s="4">
         <v>0</v>
       </c>
       <c r="P554" t="s">
@@ -36913,13 +36946,13 @@
       </c>
     </row>
     <row r="555" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A555" s="5">
+      <c r="A555" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B555" s="5">
+      <c r="B555" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C555" s="5">
+      <c r="C555" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D555" t="s">
@@ -36955,7 +36988,7 @@
       <c r="N555" s="3">
         <v>45875</v>
       </c>
-      <c r="O555">
+      <c r="O555" s="4">
         <v>1</v>
       </c>
       <c r="P555" t="s">
@@ -36975,13 +37008,13 @@
       </c>
     </row>
     <row r="556" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A556" s="5">
+      <c r="A556" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B556" s="5">
+      <c r="B556" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C556" s="5">
+      <c r="C556" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D556" t="s">
@@ -37017,7 +37050,7 @@
       <c r="N556" s="3">
         <v>45875</v>
       </c>
-      <c r="O556">
+      <c r="O556" s="4">
         <v>0.5</v>
       </c>
       <c r="P556" t="s">
@@ -37037,13 +37070,13 @@
       </c>
     </row>
     <row r="557" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A557" s="5">
+      <c r="A557" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B557" s="5">
+      <c r="B557" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C557" s="5">
+      <c r="C557" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D557" t="s">
@@ -37079,7 +37112,7 @@
       <c r="N557" s="3">
         <v>45875</v>
       </c>
-      <c r="O557">
+      <c r="O557" s="4">
         <v>1</v>
       </c>
       <c r="P557" t="s">
@@ -37099,13 +37132,13 @@
       </c>
     </row>
     <row r="558" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A558" s="5">
+      <c r="A558" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B558" s="5">
+      <c r="B558" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C558" s="5">
+      <c r="C558" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D558" t="s">
@@ -37141,7 +37174,7 @@
       <c r="N558" s="3">
         <v>45875</v>
       </c>
-      <c r="O558">
+      <c r="O558" s="4">
         <v>1</v>
       </c>
       <c r="P558" t="s">
@@ -37161,13 +37194,13 @@
       </c>
     </row>
     <row r="559" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A559" s="5">
+      <c r="A559" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B559" s="5">
+      <c r="B559" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C559" s="5">
+      <c r="C559" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D559" t="s">
@@ -37203,7 +37236,7 @@
       <c r="N559" s="3">
         <v>45875</v>
       </c>
-      <c r="O559">
+      <c r="O559" s="4">
         <v>0</v>
       </c>
       <c r="P559" t="s">
@@ -37223,13 +37256,13 @@
       </c>
     </row>
     <row r="560" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A560" s="5">
+      <c r="A560" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B560" s="5">
+      <c r="B560" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C560" s="5">
+      <c r="C560" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D560" t="s">
@@ -37265,7 +37298,7 @@
       <c r="N560" s="3">
         <v>45875</v>
       </c>
-      <c r="O560">
+      <c r="O560" s="4">
         <v>0.9</v>
       </c>
       <c r="P560" t="s">
@@ -37285,13 +37318,13 @@
       </c>
     </row>
     <row r="561" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A561" s="5">
+      <c r="A561" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B561" s="5">
+      <c r="B561" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C561" s="5">
+      <c r="C561" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D561" t="s">
@@ -37327,7 +37360,7 @@
       <c r="N561" s="3">
         <v>45875</v>
       </c>
-      <c r="O561">
+      <c r="O561" s="4">
         <v>1</v>
       </c>
       <c r="P561" t="s">
@@ -37347,13 +37380,13 @@
       </c>
     </row>
     <row r="562" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A562" s="5">
+      <c r="A562" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B562" s="5">
+      <c r="B562" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C562" s="5">
+      <c r="C562" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D562" t="s">
@@ -37389,7 +37422,7 @@
       <c r="N562" s="3">
         <v>45875</v>
       </c>
-      <c r="O562">
+      <c r="O562" s="4">
         <v>1</v>
       </c>
       <c r="P562" t="s">
@@ -37409,13 +37442,13 @@
       </c>
     </row>
     <row r="563" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A563" s="5">
+      <c r="A563" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B563" s="5">
+      <c r="B563" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C563" s="5">
+      <c r="C563" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D563" t="s">
@@ -37451,7 +37484,7 @@
       <c r="N563" s="3">
         <v>45875</v>
       </c>
-      <c r="O563">
+      <c r="O563" s="4">
         <v>1</v>
       </c>
       <c r="P563" t="s">
@@ -37471,13 +37504,13 @@
       </c>
     </row>
     <row r="564" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A564" s="5">
+      <c r="A564" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B564" s="5">
+      <c r="B564" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C564" s="5">
+      <c r="C564" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D564" t="s">
@@ -37513,7 +37546,7 @@
       <c r="N564" s="3">
         <v>45875</v>
       </c>
-      <c r="O564">
+      <c r="O564" s="4">
         <v>1</v>
       </c>
       <c r="P564" t="s">
@@ -37533,13 +37566,13 @@
       </c>
     </row>
     <row r="565" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A565" s="5">
+      <c r="A565" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B565" s="5">
+      <c r="B565" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C565" s="5">
+      <c r="C565" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D565" t="s">
@@ -37575,7 +37608,7 @@
       <c r="N565" s="3">
         <v>45875</v>
       </c>
-      <c r="O565">
+      <c r="O565" s="4">
         <v>1</v>
       </c>
       <c r="P565" t="s">
@@ -37595,13 +37628,13 @@
       </c>
     </row>
     <row r="566" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A566" s="5">
+      <c r="A566" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B566" s="5">
+      <c r="B566" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C566" s="5">
+      <c r="C566" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D566" t="s">
@@ -37637,7 +37670,7 @@
       <c r="N566" s="3">
         <v>45875</v>
       </c>
-      <c r="O566">
+      <c r="O566" s="4">
         <v>0</v>
       </c>
       <c r="P566" t="s">
@@ -37657,13 +37690,13 @@
       </c>
     </row>
     <row r="567" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A567" s="5">
+      <c r="A567" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B567" s="5">
+      <c r="B567" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C567" s="5">
+      <c r="C567" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D567" t="s">
@@ -37699,7 +37732,7 @@
       <c r="N567" s="3">
         <v>45875</v>
       </c>
-      <c r="O567">
+      <c r="O567" s="4">
         <v>1</v>
       </c>
       <c r="P567" t="s">
@@ -37719,13 +37752,13 @@
       </c>
     </row>
     <row r="568" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A568" s="5">
+      <c r="A568" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B568" s="5">
+      <c r="B568" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C568" s="5">
+      <c r="C568" s="2">
         <v>0.24305555555555552</v>
       </c>
       <c r="D568" t="s">
@@ -37761,7 +37794,7 @@
       <c r="N568" s="3">
         <v>45875</v>
       </c>
-      <c r="O568">
+      <c r="O568" s="4">
         <v>0</v>
       </c>
       <c r="P568" t="s">
@@ -37781,13 +37814,13 @@
       </c>
     </row>
     <row r="569" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A569" s="5">
+      <c r="A569" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B569" s="5">
+      <c r="B569" s="2">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C569" s="5">
+      <c r="C569" s="2">
         <v>0.24652777777777785</v>
       </c>
       <c r="D569" t="s">
@@ -37823,7 +37856,7 @@
       <c r="N569" s="3">
         <v>45875</v>
       </c>
-      <c r="O569">
+      <c r="O569" s="4">
         <v>1</v>
       </c>
       <c r="P569" t="s">
@@ -37840,6 +37873,1432 @@
       </c>
       <c r="T569" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="570" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A570" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B570" s="5">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="C570">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>29</v>
+      </c>
+      <c r="E570" t="s">
+        <v>52</v>
+      </c>
+      <c r="F570">
+        <v>183</v>
+      </c>
+      <c r="G570">
+        <v>36.6</v>
+      </c>
+      <c r="H570">
+        <v>76</v>
+      </c>
+      <c r="I570">
+        <v>15.200000000000001</v>
+      </c>
+      <c r="J570" t="s">
+        <v>613</v>
+      </c>
+      <c r="K570" t="s">
+        <v>55</v>
+      </c>
+      <c r="L570" t="s">
+        <v>84</v>
+      </c>
+      <c r="M570" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N570" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O570" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P570" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q570" t="s">
+        <v>67</v>
+      </c>
+      <c r="R570" t="s">
+        <v>88</v>
+      </c>
+      <c r="S570" t="s">
+        <v>629</v>
+      </c>
+      <c r="T570" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="571" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A571" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B571" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C571">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="D571" t="s">
+        <v>29</v>
+      </c>
+      <c r="E571" t="s">
+        <v>52</v>
+      </c>
+      <c r="F571">
+        <v>189</v>
+      </c>
+      <c r="G571">
+        <v>37.800000000000004</v>
+      </c>
+      <c r="H571">
+        <v>7</v>
+      </c>
+      <c r="I571">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J571" t="s">
+        <v>615</v>
+      </c>
+      <c r="K571" t="s">
+        <v>55</v>
+      </c>
+      <c r="L571" t="s">
+        <v>84</v>
+      </c>
+      <c r="M571" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N571" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O571" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P571" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q571" t="s">
+        <v>67</v>
+      </c>
+      <c r="R571" t="s">
+        <v>88</v>
+      </c>
+      <c r="S571" t="s">
+        <v>629</v>
+      </c>
+      <c r="T571" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="572" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A572" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B572" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C572">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D572" t="s">
+        <v>38</v>
+      </c>
+      <c r="E572" t="s">
+        <v>612</v>
+      </c>
+      <c r="F572">
+        <v>272</v>
+      </c>
+      <c r="G572">
+        <v>272</v>
+      </c>
+      <c r="H572">
+        <v>196</v>
+      </c>
+      <c r="I572">
+        <v>196</v>
+      </c>
+      <c r="J572" t="s">
+        <v>174</v>
+      </c>
+      <c r="K572" t="s">
+        <v>57</v>
+      </c>
+      <c r="L572" t="s">
+        <v>84</v>
+      </c>
+      <c r="M572" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N572" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O572" s="4">
+        <v>1</v>
+      </c>
+      <c r="P572" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q572" t="s">
+        <v>67</v>
+      </c>
+      <c r="R572" t="s">
+        <v>88</v>
+      </c>
+      <c r="S572" t="s">
+        <v>630</v>
+      </c>
+      <c r="T572" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="573" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A573" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B573" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C573">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D573" t="s">
+        <v>38</v>
+      </c>
+      <c r="E573" t="s">
+        <v>612</v>
+      </c>
+      <c r="F573">
+        <v>271</v>
+      </c>
+      <c r="G573">
+        <v>271</v>
+      </c>
+      <c r="H573">
+        <v>254</v>
+      </c>
+      <c r="I573">
+        <v>254</v>
+      </c>
+      <c r="J573" t="s">
+        <v>225</v>
+      </c>
+      <c r="K573" t="s">
+        <v>57</v>
+      </c>
+      <c r="L573" t="s">
+        <v>84</v>
+      </c>
+      <c r="M573" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N573" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O573" s="4">
+        <v>1</v>
+      </c>
+      <c r="P573" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q573" t="s">
+        <v>67</v>
+      </c>
+      <c r="R573" t="s">
+        <v>88</v>
+      </c>
+      <c r="S573" t="s">
+        <v>630</v>
+      </c>
+      <c r="T573" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="574" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A574" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="B574" s="5">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="C574">
+        <v>2.2916666666666696E-2</v>
+      </c>
+      <c r="D574" t="s">
+        <v>42</v>
+      </c>
+      <c r="E574" t="s">
+        <v>71</v>
+      </c>
+      <c r="F574">
+        <v>16</v>
+      </c>
+      <c r="G574">
+        <v>16</v>
+      </c>
+      <c r="H574">
+        <v>16</v>
+      </c>
+      <c r="I574">
+        <v>16</v>
+      </c>
+      <c r="J574" t="s">
+        <v>77</v>
+      </c>
+      <c r="K574" t="s">
+        <v>55</v>
+      </c>
+      <c r="L574" t="s">
+        <v>84</v>
+      </c>
+      <c r="M574" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N574" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O574" s="4">
+        <v>1</v>
+      </c>
+      <c r="P574" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q574" t="s">
+        <v>67</v>
+      </c>
+      <c r="R574" t="s">
+        <v>88</v>
+      </c>
+      <c r="S574" t="s">
+        <v>631</v>
+      </c>
+      <c r="T574" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="575" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A575" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B575" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C575">
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="D575" t="s">
+        <v>39</v>
+      </c>
+      <c r="E575" t="s">
+        <v>69</v>
+      </c>
+      <c r="F575">
+        <v>169</v>
+      </c>
+      <c r="G575">
+        <v>169</v>
+      </c>
+      <c r="H575">
+        <v>21</v>
+      </c>
+      <c r="I575">
+        <v>21</v>
+      </c>
+      <c r="J575" t="s">
+        <v>613</v>
+      </c>
+      <c r="K575" t="s">
+        <v>55</v>
+      </c>
+      <c r="L575" t="s">
+        <v>84</v>
+      </c>
+      <c r="M575" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N575" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O575" s="4">
+        <v>1</v>
+      </c>
+      <c r="P575" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q575" t="s">
+        <v>67</v>
+      </c>
+      <c r="R575" t="s">
+        <v>88</v>
+      </c>
+      <c r="S575" t="s">
+        <v>632</v>
+      </c>
+      <c r="T575" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="576" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A576" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B576" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C576">
+        <v>0.125</v>
+      </c>
+      <c r="D576" t="s">
+        <v>471</v>
+      </c>
+      <c r="E576" t="s">
+        <v>71</v>
+      </c>
+      <c r="F576">
+        <v>72</v>
+      </c>
+      <c r="G576">
+        <v>72</v>
+      </c>
+      <c r="H576">
+        <v>4</v>
+      </c>
+      <c r="I576">
+        <v>4</v>
+      </c>
+      <c r="J576" t="s">
+        <v>174</v>
+      </c>
+      <c r="K576" t="s">
+        <v>55</v>
+      </c>
+      <c r="L576" t="s">
+        <v>84</v>
+      </c>
+      <c r="M576" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N576" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O576" s="4">
+        <v>1</v>
+      </c>
+      <c r="P576" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q576" t="s">
+        <v>67</v>
+      </c>
+      <c r="R576" t="s">
+        <v>88</v>
+      </c>
+      <c r="S576" t="s">
+        <v>633</v>
+      </c>
+      <c r="T576" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="577" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A577" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B577" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C577">
+        <v>0.125</v>
+      </c>
+      <c r="D577" t="s">
+        <v>34</v>
+      </c>
+      <c r="E577" t="s">
+        <v>51</v>
+      </c>
+      <c r="F577">
+        <v>60</v>
+      </c>
+      <c r="G577">
+        <v>60</v>
+      </c>
+      <c r="H577">
+        <v>47</v>
+      </c>
+      <c r="I577">
+        <v>47</v>
+      </c>
+      <c r="J577" t="s">
+        <v>174</v>
+      </c>
+      <c r="K577" t="s">
+        <v>55</v>
+      </c>
+      <c r="L577" t="s">
+        <v>84</v>
+      </c>
+      <c r="M577" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N577" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O577" s="4">
+        <v>1</v>
+      </c>
+      <c r="P577" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q577" t="s">
+        <v>67</v>
+      </c>
+      <c r="R577" t="s">
+        <v>88</v>
+      </c>
+      <c r="S577" t="s">
+        <v>633</v>
+      </c>
+      <c r="T577" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="578" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A578" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B578" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C578">
+        <v>0.125</v>
+      </c>
+      <c r="D578" t="s">
+        <v>70</v>
+      </c>
+      <c r="E578" t="s">
+        <v>69</v>
+      </c>
+      <c r="F578">
+        <v>42</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>1</v>
+      </c>
+      <c r="I578">
+        <v>0</v>
+      </c>
+      <c r="J578" t="s">
+        <v>174</v>
+      </c>
+      <c r="K578" t="s">
+        <v>55</v>
+      </c>
+      <c r="L578" t="s">
+        <v>84</v>
+      </c>
+      <c r="M578" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N578" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O578" s="4">
+        <v>0</v>
+      </c>
+      <c r="P578" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q578" t="s">
+        <v>67</v>
+      </c>
+      <c r="R578" t="s">
+        <v>88</v>
+      </c>
+      <c r="S578" t="s">
+        <v>633</v>
+      </c>
+      <c r="T578" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="579" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A579" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B579" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C579">
+        <v>0.125</v>
+      </c>
+      <c r="D579" t="s">
+        <v>634</v>
+      </c>
+      <c r="E579" t="s">
+        <v>612</v>
+      </c>
+      <c r="F579">
+        <v>4</v>
+      </c>
+      <c r="G579">
+        <v>3.6</v>
+      </c>
+      <c r="H579">
+        <v>1</v>
+      </c>
+      <c r="I579">
+        <v>0.9</v>
+      </c>
+      <c r="J579" t="s">
+        <v>174</v>
+      </c>
+      <c r="K579" t="s">
+        <v>55</v>
+      </c>
+      <c r="L579" t="s">
+        <v>84</v>
+      </c>
+      <c r="M579" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N579" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O579" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P579" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q579" t="s">
+        <v>67</v>
+      </c>
+      <c r="R579" t="s">
+        <v>88</v>
+      </c>
+      <c r="S579" t="s">
+        <v>633</v>
+      </c>
+      <c r="T579" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="580" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A580" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B580" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C580">
+        <v>0.125</v>
+      </c>
+      <c r="D580" t="s">
+        <v>635</v>
+      </c>
+      <c r="E580" t="s">
+        <v>612</v>
+      </c>
+      <c r="F580">
+        <v>2</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>1</v>
+      </c>
+      <c r="I580">
+        <v>0</v>
+      </c>
+      <c r="J580" t="s">
+        <v>174</v>
+      </c>
+      <c r="K580" t="s">
+        <v>55</v>
+      </c>
+      <c r="L580" t="s">
+        <v>84</v>
+      </c>
+      <c r="M580" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N580" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O580" s="4">
+        <v>0</v>
+      </c>
+      <c r="P580" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q580" t="s">
+        <v>67</v>
+      </c>
+      <c r="R580" t="s">
+        <v>88</v>
+      </c>
+      <c r="S580" t="s">
+        <v>633</v>
+      </c>
+      <c r="T580" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="581" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A581" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B581" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C581">
+        <v>0.125</v>
+      </c>
+      <c r="D581" t="s">
+        <v>25</v>
+      </c>
+      <c r="E581" t="s">
+        <v>69</v>
+      </c>
+      <c r="F581">
+        <v>1</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581">
+        <v>1</v>
+      </c>
+      <c r="I581">
+        <v>1</v>
+      </c>
+      <c r="J581" t="s">
+        <v>174</v>
+      </c>
+      <c r="K581" t="s">
+        <v>55</v>
+      </c>
+      <c r="L581" t="s">
+        <v>84</v>
+      </c>
+      <c r="M581" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N581" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O581" s="4">
+        <v>1</v>
+      </c>
+      <c r="P581" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q581" t="s">
+        <v>67</v>
+      </c>
+      <c r="R581" t="s">
+        <v>88</v>
+      </c>
+      <c r="S581" t="s">
+        <v>633</v>
+      </c>
+      <c r="T581" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="582" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A582" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B582" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C582">
+        <v>0.125</v>
+      </c>
+      <c r="D582" t="s">
+        <v>21</v>
+      </c>
+      <c r="E582" t="s">
+        <v>51</v>
+      </c>
+      <c r="F582">
+        <v>60</v>
+      </c>
+      <c r="G582">
+        <v>60</v>
+      </c>
+      <c r="H582">
+        <v>1</v>
+      </c>
+      <c r="I582">
+        <v>1</v>
+      </c>
+      <c r="J582" t="s">
+        <v>225</v>
+      </c>
+      <c r="K582" t="s">
+        <v>55</v>
+      </c>
+      <c r="L582" t="s">
+        <v>84</v>
+      </c>
+      <c r="M582" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N582" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O582" s="4">
+        <v>1</v>
+      </c>
+      <c r="P582" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q582" t="s">
+        <v>67</v>
+      </c>
+      <c r="R582" t="s">
+        <v>88</v>
+      </c>
+      <c r="S582" t="s">
+        <v>636</v>
+      </c>
+      <c r="T582" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="583" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A583" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B583" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C583">
+        <v>0.125</v>
+      </c>
+      <c r="D583" t="s">
+        <v>637</v>
+      </c>
+      <c r="E583" t="s">
+        <v>71</v>
+      </c>
+      <c r="F583">
+        <v>47</v>
+      </c>
+      <c r="G583">
+        <v>18.8</v>
+      </c>
+      <c r="H583">
+        <v>18</v>
+      </c>
+      <c r="I583">
+        <v>7.2</v>
+      </c>
+      <c r="J583" t="s">
+        <v>225</v>
+      </c>
+      <c r="K583" t="s">
+        <v>55</v>
+      </c>
+      <c r="L583" t="s">
+        <v>84</v>
+      </c>
+      <c r="M583" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N583" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O583" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="P583" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q583" t="s">
+        <v>67</v>
+      </c>
+      <c r="R583" t="s">
+        <v>88</v>
+      </c>
+      <c r="S583" t="s">
+        <v>636</v>
+      </c>
+      <c r="T583" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="584" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A584" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B584" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C584">
+        <v>0.125</v>
+      </c>
+      <c r="D584" t="s">
+        <v>620</v>
+      </c>
+      <c r="E584" t="s">
+        <v>69</v>
+      </c>
+      <c r="F584">
+        <v>20</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>1</v>
+      </c>
+      <c r="I584">
+        <v>0</v>
+      </c>
+      <c r="J584" t="s">
+        <v>225</v>
+      </c>
+      <c r="K584" t="s">
+        <v>55</v>
+      </c>
+      <c r="L584" t="s">
+        <v>84</v>
+      </c>
+      <c r="M584" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N584" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O584" s="4">
+        <v>0</v>
+      </c>
+      <c r="P584" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q584" t="s">
+        <v>67</v>
+      </c>
+      <c r="R584" t="s">
+        <v>88</v>
+      </c>
+      <c r="S584" t="s">
+        <v>636</v>
+      </c>
+      <c r="T584" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="585" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A585" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B585" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C585">
+        <v>0.125</v>
+      </c>
+      <c r="D585" t="s">
+        <v>638</v>
+      </c>
+      <c r="E585" t="s">
+        <v>53</v>
+      </c>
+      <c r="F585">
+        <v>20</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>1</v>
+      </c>
+      <c r="I585">
+        <v>0</v>
+      </c>
+      <c r="J585" t="s">
+        <v>225</v>
+      </c>
+      <c r="K585" t="s">
+        <v>55</v>
+      </c>
+      <c r="L585" t="s">
+        <v>84</v>
+      </c>
+      <c r="M585" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N585" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O585" s="4">
+        <v>0</v>
+      </c>
+      <c r="P585" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q585" t="s">
+        <v>67</v>
+      </c>
+      <c r="R585" t="s">
+        <v>88</v>
+      </c>
+      <c r="S585" t="s">
+        <v>636</v>
+      </c>
+      <c r="T585" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="586" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A586" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B586" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C586">
+        <v>0.125</v>
+      </c>
+      <c r="D586" t="s">
+        <v>79</v>
+      </c>
+      <c r="E586" t="s">
+        <v>53</v>
+      </c>
+      <c r="F586">
+        <v>11</v>
+      </c>
+      <c r="G586">
+        <v>11</v>
+      </c>
+      <c r="H586">
+        <v>10</v>
+      </c>
+      <c r="I586">
+        <v>10</v>
+      </c>
+      <c r="J586" t="s">
+        <v>225</v>
+      </c>
+      <c r="K586" t="s">
+        <v>55</v>
+      </c>
+      <c r="L586" t="s">
+        <v>84</v>
+      </c>
+      <c r="M586" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N586" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O586" s="4">
+        <v>1</v>
+      </c>
+      <c r="P586" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q586" t="s">
+        <v>67</v>
+      </c>
+      <c r="R586" t="s">
+        <v>88</v>
+      </c>
+      <c r="S586" t="s">
+        <v>636</v>
+      </c>
+      <c r="T586" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="587" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A587" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B587" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C587">
+        <v>0.125</v>
+      </c>
+      <c r="D587" t="s">
+        <v>40</v>
+      </c>
+      <c r="E587" t="s">
+        <v>53</v>
+      </c>
+      <c r="F587">
+        <v>8</v>
+      </c>
+      <c r="G587">
+        <v>7.2</v>
+      </c>
+      <c r="H587">
+        <v>2</v>
+      </c>
+      <c r="I587">
+        <v>1.8</v>
+      </c>
+      <c r="J587" t="s">
+        <v>225</v>
+      </c>
+      <c r="K587" t="s">
+        <v>55</v>
+      </c>
+      <c r="L587" t="s">
+        <v>84</v>
+      </c>
+      <c r="M587" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N587" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O587" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P587" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q587" t="s">
+        <v>639</v>
+      </c>
+      <c r="R587" t="s">
+        <v>45</v>
+      </c>
+      <c r="S587" t="s">
+        <v>636</v>
+      </c>
+      <c r="T587" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="588" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A588" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B588" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C588">
+        <v>0.125</v>
+      </c>
+      <c r="D588" t="s">
+        <v>621</v>
+      </c>
+      <c r="E588" t="s">
+        <v>81</v>
+      </c>
+      <c r="F588">
+        <v>7</v>
+      </c>
+      <c r="G588">
+        <v>2.1</v>
+      </c>
+      <c r="H588">
+        <v>3</v>
+      </c>
+      <c r="I588">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J588" t="s">
+        <v>225</v>
+      </c>
+      <c r="K588" t="s">
+        <v>55</v>
+      </c>
+      <c r="L588" t="s">
+        <v>84</v>
+      </c>
+      <c r="M588" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N588" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O588" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P588" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q588" t="s">
+        <v>67</v>
+      </c>
+      <c r="R588" t="s">
+        <v>88</v>
+      </c>
+      <c r="S588" t="s">
+        <v>636</v>
+      </c>
+      <c r="T588" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="589" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A589" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B589" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C589">
+        <v>0.125</v>
+      </c>
+      <c r="D589" t="s">
+        <v>18</v>
+      </c>
+      <c r="E589" t="s">
+        <v>247</v>
+      </c>
+      <c r="F589">
+        <v>5</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>3</v>
+      </c>
+      <c r="I589">
+        <v>0</v>
+      </c>
+      <c r="J589" t="s">
+        <v>225</v>
+      </c>
+      <c r="K589" t="s">
+        <v>55</v>
+      </c>
+      <c r="L589" t="s">
+        <v>84</v>
+      </c>
+      <c r="M589" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N589" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O589" s="4">
+        <v>0</v>
+      </c>
+      <c r="P589" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q589" t="s">
+        <v>67</v>
+      </c>
+      <c r="R589" t="s">
+        <v>88</v>
+      </c>
+      <c r="S589" t="s">
+        <v>636</v>
+      </c>
+      <c r="T589" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="590" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A590" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B590" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C590">
+        <v>0.125</v>
+      </c>
+      <c r="D590" t="s">
+        <v>65</v>
+      </c>
+      <c r="E590" t="s">
+        <v>247</v>
+      </c>
+      <c r="F590">
+        <v>3</v>
+      </c>
+      <c r="G590">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H590">
+        <v>3</v>
+      </c>
+      <c r="I590">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="J590" t="s">
+        <v>225</v>
+      </c>
+      <c r="K590" t="s">
+        <v>55</v>
+      </c>
+      <c r="L590" t="s">
+        <v>84</v>
+      </c>
+      <c r="M590" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N590" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O590" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P590" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q590" t="s">
+        <v>67</v>
+      </c>
+      <c r="R590" t="s">
+        <v>88</v>
+      </c>
+      <c r="S590" t="s">
+        <v>636</v>
+      </c>
+      <c r="T590" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="591" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A591" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B591" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C591">
+        <v>0.125</v>
+      </c>
+      <c r="D591" t="s">
+        <v>627</v>
+      </c>
+      <c r="E591" t="s">
+        <v>612</v>
+      </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
+        <v>0</v>
+      </c>
+      <c r="J591" t="s">
+        <v>225</v>
+      </c>
+      <c r="K591" t="s">
+        <v>55</v>
+      </c>
+      <c r="L591" t="s">
+        <v>84</v>
+      </c>
+      <c r="M591" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N591" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O591" s="4">
+        <v>0</v>
+      </c>
+      <c r="P591" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q591" t="s">
+        <v>67</v>
+      </c>
+      <c r="R591" t="s">
+        <v>88</v>
+      </c>
+      <c r="S591" t="s">
+        <v>636</v>
+      </c>
+      <c r="T591" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="592" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A592" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B592" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C592">
+        <v>0.125</v>
+      </c>
+      <c r="D592" t="s">
+        <v>42</v>
+      </c>
+      <c r="E592" t="s">
+        <v>71</v>
+      </c>
+      <c r="F592">
+        <v>1</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592">
+        <v>1</v>
+      </c>
+      <c r="I592">
+        <v>0</v>
+      </c>
+      <c r="J592" t="s">
+        <v>225</v>
+      </c>
+      <c r="K592" t="s">
+        <v>55</v>
+      </c>
+      <c r="L592" t="s">
+        <v>84</v>
+      </c>
+      <c r="M592" s="3">
+        <v>45876</v>
+      </c>
+      <c r="N592" s="3">
+        <v>45876</v>
+      </c>
+      <c r="O592" s="4">
+        <v>0</v>
+      </c>
+      <c r="P592" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q592" t="s">
+        <v>67</v>
+      </c>
+      <c r="R592" t="s">
+        <v>88</v>
+      </c>
+      <c r="S592" t="s">
+        <v>636</v>
+      </c>
+      <c r="T592" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -37859,6 +39318,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dff58c59-0826-40b3-818c-217a342b7c32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="dff58c59-0826-40b3-818c-217a342b7c32" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005725F3247F336418FD0B6982E885FE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0671357150d9826c132cbbe52a039adf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dff58c59-0826-40b3-818c-217a342b7c32" xmlns:ns3="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fb90c90cf4acc00e22d7a7eeb7139e" ns2:_="" ns3:_="">
     <xsd:import namespace="dff58c59-0826-40b3-818c-217a342b7c32"/>
@@ -38093,25 +39571,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dff58c59-0826-40b3-818c-217a342b7c32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="dff58c59-0826-40b3-818c-217a342b7c32" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5239AD7F-1464-41CB-8753-741CBA1FE41D}">
   <ds:schemaRefs>
@@ -38121,6 +39580,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E88B3C-4BEC-4576-8AA1-A95A0A229521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8d12b38e-cd84-4dc9-9e23-0584e838c5c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dff58c59-0826-40b3-818c-217a342b7c32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A4093C-E733-42F2-8FB0-D4E9523AD248}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38137,21 +39613,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E88B3C-4BEC-4576-8AA1-A95A0A229521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8d12b38e-cd84-4dc9-9e23-0584e838c5c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dff58c59-0826-40b3-818c-217a342b7c32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dashboard_Lista de tareas 2025.xlsx
+++ b/Dashboard_Lista de tareas 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warehousing.sharepoint.com/sites/Operaciones/Documentos compartidos/001 CONTROL STOCK/Herramientas de control stock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9736B22-4B19-47AE-86F1-9C03E02B2067}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1F1B9A-49A9-4360-BE44-5B1346953A2F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="598" xr2:uid="{CB3C9A90-1F93-464E-864E-5F940A5938F4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Lista " sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista '!$A$1:$T$546</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista '!$A$1:$T$592</definedName>
     <definedName name="Calendar_Year">#REF!</definedName>
     <definedName name="Título1">#REF!</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="639">
   <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
@@ -1892,9 +1892,6 @@
   </si>
   <si>
     <t>WH12102022.3196</t>
-  </si>
-  <si>
-    <t>Regina ibarra</t>
   </si>
   <si>
     <t>MAS TIN SA AGENCIA EN CHILE</t>
@@ -1967,12 +1964,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2104,13 +2100,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="2" xr:uid="{96AA2D41-F00C-45D4-BB6D-C315216FF078}"/>
@@ -2588,10 +2583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="O547" sqref="O547:O592"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2741,7 +2737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -2865,7 +2861,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.39930555555555558</v>
       </c>
@@ -3237,7 +3233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0.4375</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -3423,7 +3419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0.46527777777777779</v>
       </c>
@@ -3485,7 +3481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -3547,7 +3543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3671,7 +3667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>0.4375</v>
       </c>
@@ -3733,7 +3729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0.60763888888888884</v>
       </c>
@@ -3795,7 +3791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3857,7 +3853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0.5</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -3981,7 +3977,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0.65972222222222221</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -4105,7 +4101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -4229,7 +4225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0.375</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0.59027777777777779</v>
       </c>
@@ -4415,7 +4411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -4477,7 +4473,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -4539,7 +4535,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0.3576388888888889</v>
       </c>
@@ -4663,7 +4659,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>0.51388888888888884</v>
       </c>
@@ -4725,7 +4721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>0.51388888888888884</v>
       </c>
@@ -4787,7 +4783,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>0.37083333333333335</v>
       </c>
@@ -4849,7 +4845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>0.5625</v>
       </c>
@@ -4911,7 +4907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -4973,7 +4969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>0.40625</v>
       </c>
@@ -5035,7 +5031,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>0.625</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -5221,7 +5217,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>9.375E-2</v>
       </c>
@@ -5283,7 +5279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>0.35069444444444442</v>
       </c>
@@ -5345,7 +5341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>0.5</v>
       </c>
@@ -5407,7 +5403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -5531,7 +5527,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -5593,7 +5589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -5655,7 +5651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>0.375</v>
       </c>
@@ -5717,7 +5713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0.375</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -5841,7 +5837,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -5903,7 +5899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -5965,7 +5961,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -6089,7 +6085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>0.51041666666666663</v>
       </c>
@@ -6151,7 +6147,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>0.59444444444444444</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -6275,7 +6271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -6337,7 +6333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -6399,7 +6395,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -6461,7 +6457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -6523,7 +6519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -6585,7 +6581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -6647,7 +6643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>0.42777777777777776</v>
       </c>
@@ -6709,7 +6705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -6771,7 +6767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>0.56319444444444444</v>
       </c>
@@ -6833,7 +6829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>0.6381944444444444</v>
       </c>
@@ -6895,7 +6891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -6957,7 +6953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -7019,7 +7015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>0.35972222222222222</v>
       </c>
@@ -7081,7 +7077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>0.41875000000000001</v>
       </c>
@@ -7143,7 +7139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>0.49513888888888891</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>0.62291666666666667</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -7329,7 +7325,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>0.46875</v>
       </c>
@@ -7391,7 +7387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -7453,7 +7449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -7515,7 +7511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -7577,7 +7573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -7639,7 +7635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>0.5</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -7887,7 +7883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -7949,7 +7945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -8011,7 +8007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>0.44236111111111109</v>
       </c>
@@ -8073,7 +8069,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -8135,7 +8131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -8197,7 +8193,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -8259,7 +8255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>0.62083333333333335</v>
       </c>
@@ -8321,7 +8317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -8383,7 +8379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>0.3888888888888889</v>
       </c>
@@ -8445,7 +8441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>0.49027777777777776</v>
       </c>
@@ -8507,7 +8503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>0.63194444444444442</v>
       </c>
@@ -8569,7 +8565,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -8631,7 +8627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>0.375</v>
       </c>
@@ -8693,7 +8689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>0.375</v>
       </c>
@@ -8755,7 +8751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -8817,7 +8813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -8879,7 +8875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -8941,7 +8937,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -9003,7 +8999,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>0.61597222222222225</v>
       </c>
@@ -9065,7 +9061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>0.3576388888888889</v>
       </c>
@@ -9127,7 +9123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -9189,7 +9185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>0.5</v>
       </c>
@@ -9251,7 +9247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>0.62152777777777779</v>
       </c>
@@ -9313,7 +9309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -9375,7 +9371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>0.56597222222222221</v>
       </c>
@@ -9437,7 +9433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>0.35833333333333334</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>0.4861111111111111</v>
       </c>
@@ -9561,7 +9557,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -9623,7 +9619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -9685,7 +9681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>0.5</v>
       </c>
@@ -9747,7 +9743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>0.375</v>
       </c>
@@ -9809,7 +9805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>0.375</v>
       </c>
@@ -9871,7 +9867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>0.55347222222222225</v>
       </c>
@@ -9933,7 +9929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>0.4909722222222222</v>
       </c>
@@ -9995,7 +9991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -10057,7 +10053,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -10181,7 +10177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>0.61458333333333337</v>
       </c>
@@ -10243,7 +10239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>0.54861111111111116</v>
       </c>
@@ -10305,7 +10301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>0.375</v>
       </c>
@@ -10429,7 +10425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -10491,7 +10487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -10553,7 +10549,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -10677,7 +10673,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -10739,7 +10735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -10801,7 +10797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -10863,7 +10859,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>0.4548611111111111</v>
       </c>
@@ -10925,7 +10921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>0.47569444444444442</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>0.55208333333333337</v>
       </c>
@@ -11049,7 +11045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>0.61458333333333337</v>
       </c>
@@ -11111,7 +11107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -11235,7 +11231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -11297,7 +11293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>0.4201388888888889</v>
       </c>
@@ -11359,7 +11355,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>0.46180555555555558</v>
       </c>
@@ -11421,7 +11417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -11483,7 +11479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>0.375</v>
       </c>
@@ -11545,7 +11541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -11607,7 +11603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -11669,7 +11665,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>0.4597222222222222</v>
       </c>
@@ -11731,7 +11727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>0.61458333333333337</v>
       </c>
@@ -11793,7 +11789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -11855,7 +11851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11917,7 +11913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>0.4826388888888889</v>
       </c>
@@ -11979,7 +11975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -12041,7 +12037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -12103,7 +12099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -12165,7 +12161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -12227,7 +12223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -12351,7 +12347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -12537,7 +12533,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -12599,7 +12595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -12723,7 +12719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>0.50347222222222221</v>
       </c>
@@ -12785,7 +12781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -12909,7 +12905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>0.63194444444444442</v>
       </c>
@@ -12971,7 +12967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -13219,7 +13215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>0.625</v>
       </c>
@@ -13281,7 +13277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -13405,7 +13401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>0.56944444444444442</v>
       </c>
@@ -13467,7 +13463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -13653,7 +13649,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -13777,7 +13773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>0.59375</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>0.66319444444444442</v>
       </c>
@@ -14025,7 +14021,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -14273,7 +14269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -14335,7 +14331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -14397,7 +14393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -14521,7 +14517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>0.35069444444444442</v>
       </c>
@@ -14583,7 +14579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -14645,7 +14641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>0.58750000000000002</v>
       </c>
@@ -14707,7 +14703,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -14893,7 +14889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>0.50694444444444442</v>
       </c>
@@ -15017,7 +15013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -15079,7 +15075,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -15141,7 +15137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>0.51388888888888884</v>
       </c>
@@ -15203,7 +15199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -15265,7 +15261,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>0.63194444444444442</v>
       </c>
@@ -15513,7 +15509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -15625,7 +15621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -15681,7 +15677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -15805,7 +15801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -15867,7 +15863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -16053,7 +16049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>0.53125</v>
       </c>
@@ -16115,7 +16111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -16301,7 +16297,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>0.46875</v>
       </c>
@@ -16363,7 +16359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>0.59027777777777779</v>
       </c>
@@ -16487,7 +16483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -16549,7 +16545,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -16611,7 +16607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -16735,7 +16731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>0.5625</v>
       </c>
@@ -16859,7 +16855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -16921,7 +16917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -17045,7 +17041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>0.375</v>
       </c>
@@ -17169,7 +17165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -17231,7 +17227,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -17293,7 +17289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>0.375</v>
       </c>
@@ -17417,7 +17413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -17479,7 +17475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>0.4375</v>
       </c>
@@ -17541,7 +17537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>0.4375</v>
       </c>
@@ -17665,7 +17661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>0.59375</v>
       </c>
@@ -17727,7 +17723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -17913,7 +17909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>0.4597222222222222</v>
       </c>
@@ -17975,7 +17971,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -18037,7 +18033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -18223,7 +18219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -18347,7 +18343,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>0.49791666666666667</v>
       </c>
@@ -18409,7 +18405,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -18471,7 +18467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -18533,7 +18529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -18657,7 +18653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>0.61041666666666672</v>
       </c>
@@ -18781,7 +18777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>0.37847222222222221</v>
       </c>
@@ -18905,7 +18901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>0.64930555555555558</v>
       </c>
@@ -18967,7 +18963,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>0.375</v>
       </c>
@@ -19091,7 +19087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -19215,7 +19211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>0.375</v>
       </c>
@@ -19277,7 +19273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>0.6791666666666667</v>
       </c>
@@ -19401,7 +19397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>0.375</v>
       </c>
@@ -19525,7 +19521,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -19649,7 +19645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -19835,7 +19831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -19959,7 +19955,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>0.62847222222222221</v>
       </c>
@@ -20021,7 +20017,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>0.375</v>
       </c>
@@ -20145,7 +20141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>0.4777777777777778</v>
       </c>
@@ -20331,7 +20327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -20393,7 +20389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>0.375</v>
       </c>
@@ -20517,7 +20513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -20641,7 +20637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -20703,7 +20699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -20827,7 +20823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -20951,7 +20947,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21013,7 +21009,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -21137,7 +21133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>0.59027777777777779</v>
       </c>
@@ -21323,7 +21319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -21385,7 +21381,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -21509,7 +21505,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21757,7 +21753,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21819,7 +21815,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21881,7 +21877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21943,7 +21939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -22129,7 +22125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22253,7 +22249,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22315,7 +22311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -22377,7 +22373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22501,7 +22497,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22625,7 +22621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22749,7 +22745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22873,7 +22869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22935,7 +22931,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22997,7 +22993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23121,7 +23117,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23183,7 +23179,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23369,7 +23365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23431,7 +23427,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23493,7 +23489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23617,7 +23613,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23679,7 +23675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23803,7 +23799,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23927,7 +23923,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>0.375</v>
       </c>
@@ -24051,7 +24047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>0.375</v>
       </c>
@@ -24175,7 +24171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>0.375</v>
       </c>
@@ -24299,7 +24295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -24423,7 +24419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>0.4375</v>
       </c>
@@ -24547,7 +24543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -24609,7 +24605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -24671,7 +24667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -24733,7 +24729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -24795,7 +24791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -24857,7 +24853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -24919,7 +24915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>0.375</v>
       </c>
@@ -25043,7 +25039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -25167,7 +25163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>0.59375</v>
       </c>
@@ -25229,7 +25225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>0.40625</v>
       </c>
@@ -25291,7 +25287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -25353,7 +25349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>0.60763888888888884</v>
       </c>
@@ -25477,7 +25473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -25539,7 +25535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -25601,7 +25597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -25725,7 +25721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -25787,7 +25783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -25911,7 +25907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>0.5854166666666667</v>
       </c>
@@ -25973,7 +25969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -26035,7 +26031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -26097,7 +26093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -26159,7 +26155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>0.63888888888888884</v>
       </c>
@@ -26221,7 +26217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -26345,7 +26341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -26407,7 +26403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>0.34375</v>
       </c>
@@ -26469,7 +26465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -26593,7 +26589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -26655,7 +26651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>0.375</v>
       </c>
@@ -26717,7 +26713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>0.39097222222222222</v>
       </c>
@@ -26779,7 +26775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>0.50347222222222221</v>
       </c>
@@ -26841,7 +26837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>0.48819444444444443</v>
       </c>
@@ -26903,7 +26899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>0.5625</v>
       </c>
@@ -26965,7 +26961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -27027,7 +27023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -27089,7 +27085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -27151,7 +27147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>0.375</v>
       </c>
@@ -27213,7 +27209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -27275,7 +27271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>0.6069444444444444</v>
       </c>
@@ -27337,7 +27333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -27399,7 +27395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -27461,7 +27457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -27523,7 +27519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -27585,7 +27581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>0.47222222222222221</v>
       </c>
@@ -27647,7 +27643,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -27709,7 +27705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -27771,7 +27767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>0.59375</v>
       </c>
@@ -27895,7 +27891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -28019,7 +28015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -28081,7 +28077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>0.44444444444444442</v>
       </c>
@@ -28143,7 +28139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -28205,7 +28201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -28267,7 +28263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -28329,7 +28325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -28389,7 +28385,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -28451,7 +28447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -28513,7 +28509,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>0.46875</v>
       </c>
@@ -28699,7 +28695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -28761,7 +28757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>0.40625</v>
       </c>
@@ -28885,7 +28881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -28947,7 +28943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -29071,7 +29067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -29133,7 +29129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -29195,7 +29191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -29257,7 +29253,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -29381,7 +29377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -29443,7 +29439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -29567,7 +29563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>0.56944444444444442</v>
       </c>
@@ -29629,7 +29625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -29691,7 +29687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -29753,7 +29749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -29815,7 +29811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -29939,7 +29935,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>0.59375</v>
       </c>
@@ -30001,7 +29997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -30063,7 +30059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -30125,7 +30121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -30187,7 +30183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -30311,7 +30307,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>0.4375</v>
       </c>
@@ -30373,7 +30369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>0.4375</v>
       </c>
@@ -30435,7 +30431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -30497,7 +30493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>0.57638888888888884</v>
       </c>
@@ -30621,7 +30617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -30683,7 +30679,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -30745,7 +30741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>0.5</v>
       </c>
@@ -30807,7 +30803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -30869,7 +30865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -30931,7 +30927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -30993,7 +30989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -31117,7 +31113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>0.40347222222222223</v>
       </c>
@@ -31179,7 +31175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -31303,7 +31299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -31365,7 +31361,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -31427,7 +31423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -31489,7 +31485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -31551,7 +31547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>0.375</v>
       </c>
@@ -31613,7 +31609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>0.375</v>
       </c>
@@ -31675,7 +31671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>0.46527777777777779</v>
       </c>
@@ -31737,7 +31733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>0.4548611111111111</v>
       </c>
@@ -31923,7 +31919,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>0.5</v>
       </c>
@@ -31985,7 +31981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>0.5</v>
       </c>
@@ -32047,7 +32043,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -32109,7 +32105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>0.375</v>
       </c>
@@ -32171,7 +32167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>0.5</v>
       </c>
@@ -32419,7 +32415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>0.625</v>
       </c>
@@ -32481,7 +32477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>0.625</v>
       </c>
@@ -32543,7 +32539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -32605,7 +32601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -32667,7 +32663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -32729,7 +32725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -32853,7 +32849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -32915,7 +32911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -32977,7 +32973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -33039,7 +33035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -33101,7 +33097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -33163,7 +33159,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>0.375</v>
       </c>
@@ -33225,7 +33221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>0.375</v>
       </c>
@@ -33349,7 +33345,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>0.43402777777777779</v>
       </c>
@@ -33473,7 +33469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -33535,7 +33531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -33597,7 +33593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -33659,7 +33655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>0.375</v>
       </c>
@@ -33783,7 +33779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -33845,7 +33841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>0.4375</v>
       </c>
@@ -33907,7 +33903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>0.4375</v>
       </c>
@@ -33969,7 +33965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>0.55208333333333337</v>
       </c>
@@ -34031,7 +34027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>0.58680555555555558</v>
       </c>
@@ -34093,7 +34089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>0.62847222222222221</v>
       </c>
@@ -34155,7 +34151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -34217,7 +34213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>0.375</v>
       </c>
@@ -34279,7 +34275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -34403,7 +34399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -34465,7 +34461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -34527,7 +34523,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -34589,7 +34585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -34651,7 +34647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -34713,7 +34709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -34775,7 +34771,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -34837,7 +34833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -34899,7 +34895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -34961,7 +34957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -35023,7 +35019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>0.5</v>
       </c>
@@ -35085,7 +35081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35209,7 +35205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -35271,7 +35267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -35333,7 +35329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>0.44444444444444442</v>
       </c>
@@ -35395,7 +35391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35457,7 +35453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35519,7 +35515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>0.375</v>
       </c>
@@ -35581,7 +35577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -35643,7 +35639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>0.44444444444444442</v>
       </c>
@@ -35705,7 +35701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -35767,7 +35763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -35829,7 +35825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -35891,7 +35887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35953,7 +35949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -36015,7 +36011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -36077,7 +36073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -36139,7 +36135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>0.34375</v>
       </c>
@@ -36201,7 +36197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>0.34375</v>
       </c>
@@ -36263,7 +36259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>0.47222222222222221</v>
       </c>
@@ -36325,7 +36321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36387,7 +36383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36449,7 +36445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36540,7 +36536,7 @@
         <v>1</v>
       </c>
       <c r="J548" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K548" t="s">
         <v>55</v>
@@ -36573,7 +36569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36584,7 +36580,7 @@
         <v>0.24652777777777785</v>
       </c>
       <c r="D549" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E549" t="s">
         <v>53</v>
@@ -36664,7 +36660,7 @@
         <v>10</v>
       </c>
       <c r="J550" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K550" t="s">
         <v>55</v>
@@ -36697,7 +36693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36708,7 +36704,7 @@
         <v>0.24652777777777785</v>
       </c>
       <c r="D551" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E551" t="s">
         <v>53</v>
@@ -36759,7 +36755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36821,7 +36817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36894,7 +36890,7 @@
         <v>0.24305555555555552</v>
       </c>
       <c r="D554" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E554" t="s">
         <v>69</v>
@@ -36912,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K554" t="s">
         <v>55</v>
@@ -36974,7 +36970,7 @@
         <v>1</v>
       </c>
       <c r="J555" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K555" t="s">
         <v>55</v>
@@ -37018,7 +37014,7 @@
         <v>0.24305555555555552</v>
       </c>
       <c r="D556" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E556" t="s">
         <v>81</v>
@@ -37036,7 +37032,7 @@
         <v>0.5</v>
       </c>
       <c r="J556" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K556" t="s">
         <v>55</v>
@@ -37098,7 +37094,7 @@
         <v>1</v>
       </c>
       <c r="J557" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K557" t="s">
         <v>55</v>
@@ -37131,7 +37127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37142,7 +37138,7 @@
         <v>0.24652777777777785</v>
       </c>
       <c r="D558" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E558" t="s">
         <v>51</v>
@@ -37222,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K559" t="s">
         <v>55</v>
@@ -37255,7 +37251,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37317,7 +37313,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37390,7 +37386,7 @@
         <v>0.24305555555555552</v>
       </c>
       <c r="D562" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E562" t="s">
         <v>71</v>
@@ -37408,7 +37404,7 @@
         <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K562" t="s">
         <v>55</v>
@@ -37441,7 +37437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37452,7 +37448,7 @@
         <v>0.24652777777777785</v>
       </c>
       <c r="D563" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E563" t="s">
         <v>51</v>
@@ -37514,7 +37510,7 @@
         <v>0.24305555555555552</v>
       </c>
       <c r="D564" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E564" t="s">
         <v>71</v>
@@ -37532,7 +37528,7 @@
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K564" t="s">
         <v>55</v>
@@ -37565,7 +37561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37576,7 +37572,7 @@
         <v>0.24652777777777785</v>
       </c>
       <c r="D565" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E565" t="s">
         <v>81</v>
@@ -37638,7 +37634,7 @@
         <v>0.24305555555555552</v>
       </c>
       <c r="D566" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E566" t="s">
         <v>612</v>
@@ -37656,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K566" t="s">
         <v>55</v>
@@ -37689,7 +37685,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37700,7 +37696,7 @@
         <v>0.24652777777777785</v>
       </c>
       <c r="D567" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E567" t="s">
         <v>81</v>
@@ -37780,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="K568" t="s">
         <v>55</v>
@@ -37813,7 +37809,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37875,11 +37871,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A570" s="5">
+    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
         <v>0.375</v>
       </c>
-      <c r="B570" s="5">
+      <c r="B570" s="2">
         <v>0.47222222222222221</v>
       </c>
       <c r="C570">
@@ -37931,17 +37927,17 @@
         <v>88</v>
       </c>
       <c r="S570" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T570" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A571" s="5">
+    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
         <v>0.375</v>
       </c>
-      <c r="B571" s="5">
+      <c r="B571" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C571">
@@ -37993,17 +37989,17 @@
         <v>88</v>
       </c>
       <c r="S571" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T571" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A572" s="5">
+    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
         <v>0.375</v>
       </c>
-      <c r="B572" s="5">
+      <c r="B572" s="2">
         <v>0.4375</v>
       </c>
       <c r="C572">
@@ -38055,17 +38051,17 @@
         <v>88</v>
       </c>
       <c r="S572" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T572" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="573" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A573" s="5">
+      <c r="A573" s="2">
         <v>0.375</v>
       </c>
-      <c r="B573" s="5">
+      <c r="B573" s="2">
         <v>0.4375</v>
       </c>
       <c r="C573">
@@ -38117,17 +38113,17 @@
         <v>88</v>
       </c>
       <c r="S573" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T573" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A574" s="5">
+    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
         <v>0.4236111111111111</v>
       </c>
-      <c r="B574" s="5">
+      <c r="B574" s="2">
         <v>0.4465277777777778</v>
       </c>
       <c r="C574">
@@ -38179,17 +38175,17 @@
         <v>88</v>
       </c>
       <c r="S574" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T574" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A575" s="5">
+    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B575" s="5">
+      <c r="B575" s="2">
         <v>0.625</v>
       </c>
       <c r="C575">
@@ -38241,17 +38237,17 @@
         <v>88</v>
       </c>
       <c r="S575" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T575" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A576" s="5">
+    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B576" s="5">
+      <c r="B576" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C576">
@@ -38303,17 +38299,17 @@
         <v>88</v>
       </c>
       <c r="S576" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T576" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A577" s="5">
+    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B577" s="5">
+      <c r="B577" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C577">
@@ -38365,17 +38361,17 @@
         <v>88</v>
       </c>
       <c r="S577" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T577" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A578" s="5">
+    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B578" s="5">
+      <c r="B578" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C578">
@@ -38427,24 +38423,24 @@
         <v>88</v>
       </c>
       <c r="S578" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T578" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A579" s="5">
+    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B579" s="5">
+      <c r="B579" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C579">
         <v>0.125</v>
       </c>
       <c r="D579" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E579" t="s">
         <v>612</v>
@@ -38489,24 +38485,24 @@
         <v>88</v>
       </c>
       <c r="S579" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T579" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A580" s="5">
+    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B580" s="5">
+      <c r="B580" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C580">
         <v>0.125</v>
       </c>
       <c r="D580" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E580" t="s">
         <v>612</v>
@@ -38551,17 +38547,17 @@
         <v>88</v>
       </c>
       <c r="S580" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T580" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A581" s="5">
+    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B581" s="5">
+      <c r="B581" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C581">
@@ -38613,17 +38609,17 @@
         <v>88</v>
       </c>
       <c r="S581" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T581" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="582" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A582" s="5">
+      <c r="A582" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B582" s="5">
+      <c r="B582" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C582">
@@ -38675,24 +38671,24 @@
         <v>88</v>
       </c>
       <c r="S582" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T582" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="583" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A583" s="5">
+      <c r="A583" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B583" s="5">
+      <c r="B583" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C583">
         <v>0.125</v>
       </c>
       <c r="D583" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E583" t="s">
         <v>71</v>
@@ -38737,24 +38733,24 @@
         <v>88</v>
       </c>
       <c r="S583" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T583" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="584" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A584" s="5">
+      <c r="A584" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B584" s="5">
+      <c r="B584" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C584">
         <v>0.125</v>
       </c>
       <c r="D584" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E584" t="s">
         <v>69</v>
@@ -38799,24 +38795,24 @@
         <v>88</v>
       </c>
       <c r="S584" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T584" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="585" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A585" s="5">
+      <c r="A585" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B585" s="5">
+      <c r="B585" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C585">
         <v>0.125</v>
       </c>
       <c r="D585" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E585" t="s">
         <v>53</v>
@@ -38861,17 +38857,17 @@
         <v>88</v>
       </c>
       <c r="S585" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T585" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="586" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A586" s="5">
+      <c r="A586" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B586" s="5">
+      <c r="B586" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C586">
@@ -38923,17 +38919,17 @@
         <v>88</v>
       </c>
       <c r="S586" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T586" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="587" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A587" s="5">
+      <c r="A587" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B587" s="5">
+      <c r="B587" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C587">
@@ -38979,30 +38975,30 @@
         <v>606</v>
       </c>
       <c r="Q587" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R587" t="s">
         <v>45</v>
       </c>
       <c r="S587" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T587" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="588" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A588" s="5">
+      <c r="A588" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B588" s="5">
+      <c r="B588" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C588">
         <v>0.125</v>
       </c>
       <c r="D588" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E588" t="s">
         <v>81</v>
@@ -39047,17 +39043,17 @@
         <v>88</v>
       </c>
       <c r="S588" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T588" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="589" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A589" s="5">
+      <c r="A589" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B589" s="5">
+      <c r="B589" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C589">
@@ -39109,17 +39105,17 @@
         <v>88</v>
       </c>
       <c r="S589" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T589" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A590" s="5">
+      <c r="A590" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B590" s="5">
+      <c r="B590" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C590">
@@ -39171,24 +39167,24 @@
         <v>88</v>
       </c>
       <c r="S590" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T590" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="591" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A591" s="5">
+      <c r="A591" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B591" s="5">
+      <c r="B591" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C591">
         <v>0.125</v>
       </c>
       <c r="D591" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E591" t="s">
         <v>612</v>
@@ -39233,17 +39229,17 @@
         <v>88</v>
       </c>
       <c r="S591" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T591" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="592" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A592" s="5">
+      <c r="A592" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B592" s="5">
+      <c r="B592" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C592">
@@ -39295,14 +39291,20 @@
         <v>88</v>
       </c>
       <c r="S592" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T592" t="s">
         <v>550</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T546" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}"/>
+  <autoFilter ref="A1:T592" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Regina Ibarra"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -39318,25 +39320,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dff58c59-0826-40b3-818c-217a342b7c32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="dff58c59-0826-40b3-818c-217a342b7c32" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005725F3247F336418FD0B6982E885FE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0671357150d9826c132cbbe52a039adf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dff58c59-0826-40b3-818c-217a342b7c32" xmlns:ns3="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fb90c90cf4acc00e22d7a7eeb7139e" ns2:_="" ns3:_="">
     <xsd:import namespace="dff58c59-0826-40b3-818c-217a342b7c32"/>
@@ -39571,6 +39554,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dff58c59-0826-40b3-818c-217a342b7c32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="8d12b38e-cd84-4dc9-9e23-0584e838c5c1">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="dff58c59-0826-40b3-818c-217a342b7c32" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5239AD7F-1464-41CB-8753-741CBA1FE41D}">
   <ds:schemaRefs>
@@ -39580,23 +39582,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E88B3C-4BEC-4576-8AA1-A95A0A229521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8d12b38e-cd84-4dc9-9e23-0584e838c5c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dff58c59-0826-40b3-818c-217a342b7c32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A4093C-E733-42F2-8FB0-D4E9523AD248}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39613,4 +39598,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E88B3C-4BEC-4576-8AA1-A95A0A229521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8d12b38e-cd84-4dc9-9e23-0584e838c5c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dff58c59-0826-40b3-818c-217a342b7c32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dashboard_Lista de tareas 2025.xlsx
+++ b/Dashboard_Lista de tareas 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warehousing.sharepoint.com/sites/Operaciones/Documentos compartidos/001 CONTROL STOCK/Herramientas de control stock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1F1B9A-49A9-4360-BE44-5B1346953A2F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28C2EC7-6DF1-47BF-96F8-92202614CA2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="598" xr2:uid="{CB3C9A90-1F93-464E-864E-5F940A5938F4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6460" uniqueCount="658">
   <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
@@ -1958,17 +1958,75 @@
   </si>
   <si>
     <t>Abierto</t>
+  </si>
+  <si>
+    <t>WH12102022.3203</t>
+  </si>
+  <si>
+    <t>Anglo American Sur S.A.(Chagres) - DHL</t>
+  </si>
+  <si>
+    <t>WH12102022.3204</t>
+  </si>
+  <si>
+    <t>WH12102022.3205</t>
+  </si>
+  <si>
+    <t>SIEMENS GAMESA RENEWABLE ENERGY SPA ON SHORE</t>
+  </si>
+  <si>
+    <t>WH12102022.3206</t>
+  </si>
+  <si>
+    <t>WH12102022.3207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIP CHILE SPA </t>
+  </si>
+  <si>
+    <t>FORD MOTOR - COLABORADORES</t>
+  </si>
+  <si>
+    <t>WH12102022.3208</t>
+  </si>
+  <si>
+    <t>SOUTH MERCHANTS SPA</t>
+  </si>
+  <si>
+    <t>WH12102022.3209</t>
+  </si>
+  <si>
+    <t>VIOSTEC TECNOLOGIA Y SERVICIOS SPA</t>
+  </si>
+  <si>
+    <t>AMBIENTE Y TECNOLOGIA LIMITADA</t>
+  </si>
+  <si>
+    <t>MICROGEO S.A.</t>
+  </si>
+  <si>
+    <t>WH12102022.3210</t>
+  </si>
+  <si>
+    <t>SOC FAB IMP Y EXP CONINTER SPA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVONIK ARGENTINA S.A., AGENCIA EN CHILE </t>
+  </si>
+  <si>
+    <t>TRIGONO SPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2100,12 +2158,13 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="2" xr:uid="{96AA2D41-F00C-45D4-BB6D-C315216FF078}"/>
@@ -2583,11 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T592"/>
+  <dimension ref="A1:T645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J592"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="M593" sqref="M593:N645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2737,7 +2795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -2861,7 +2919,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -3171,7 +3229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.39930555555555558</v>
       </c>
@@ -3233,7 +3291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3295,7 +3353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0.4375</v>
       </c>
@@ -3357,7 +3415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -3419,7 +3477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0.46527777777777779</v>
       </c>
@@ -3481,7 +3539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -3543,7 +3601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -3605,7 +3663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3667,7 +3725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>0.4375</v>
       </c>
@@ -3729,7 +3787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0.60763888888888884</v>
       </c>
@@ -3791,7 +3849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3853,7 +3911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0.5</v>
       </c>
@@ -3915,7 +3973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -3977,7 +4035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0.65972222222222221</v>
       </c>
@@ -4039,7 +4097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -4101,7 +4159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -4163,7 +4221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -4225,7 +4283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0.375</v>
       </c>
@@ -4287,7 +4345,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -4349,7 +4407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0.59027777777777779</v>
       </c>
@@ -4411,7 +4469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -4473,7 +4531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -4535,7 +4593,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -4597,7 +4655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0.3576388888888889</v>
       </c>
@@ -4659,7 +4717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>0.51388888888888884</v>
       </c>
@@ -4721,7 +4779,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>0.51388888888888884</v>
       </c>
@@ -4783,7 +4841,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>0.37083333333333335</v>
       </c>
@@ -4845,7 +4903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>0.5625</v>
       </c>
@@ -4907,7 +4965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -4969,7 +5027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>0.40625</v>
       </c>
@@ -5031,7 +5089,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>0.625</v>
       </c>
@@ -5093,7 +5151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -5155,7 +5213,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -5217,7 +5275,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>9.375E-2</v>
       </c>
@@ -5279,7 +5337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>0.35069444444444442</v>
       </c>
@@ -5341,7 +5399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>0.5</v>
       </c>
@@ -5403,7 +5461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -5465,7 +5523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -5527,7 +5585,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -5589,7 +5647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -5651,7 +5709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>0.375</v>
       </c>
@@ -5713,7 +5771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0.375</v>
       </c>
@@ -5775,7 +5833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -5837,7 +5895,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -5899,7 +5957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -5961,7 +6019,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -6023,7 +6081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -6085,7 +6143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>0.51041666666666663</v>
       </c>
@@ -6147,7 +6205,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>0.59444444444444444</v>
       </c>
@@ -6209,7 +6267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -6271,7 +6329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -6333,7 +6391,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -6395,7 +6453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -6457,7 +6515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -6519,7 +6577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -6581,7 +6639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -6643,7 +6701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>0.42777777777777776</v>
       </c>
@@ -6705,7 +6763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -6767,7 +6825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>0.56319444444444444</v>
       </c>
@@ -6829,7 +6887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>0.6381944444444444</v>
       </c>
@@ -6891,7 +6949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -6953,7 +7011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -7015,7 +7073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>0.35972222222222222</v>
       </c>
@@ -7077,7 +7135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>0.41875000000000001</v>
       </c>
@@ -7139,7 +7197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>0.49513888888888891</v>
       </c>
@@ -7201,7 +7259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>0.62291666666666667</v>
       </c>
@@ -7263,7 +7321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -7325,7 +7383,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>0.46875</v>
       </c>
@@ -7387,7 +7445,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -7449,7 +7507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -7511,7 +7569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -7573,7 +7631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -7635,7 +7693,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -7697,7 +7755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>0.5</v>
       </c>
@@ -7759,7 +7817,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -7821,7 +7879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -7883,7 +7941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -7945,7 +8003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -8007,7 +8065,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>0.44236111111111109</v>
       </c>
@@ -8069,7 +8127,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -8131,7 +8189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -8193,7 +8251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -8255,7 +8313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>0.62083333333333335</v>
       </c>
@@ -8317,7 +8375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -8379,7 +8437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>0.3888888888888889</v>
       </c>
@@ -8441,7 +8499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>0.49027777777777776</v>
       </c>
@@ -8503,7 +8561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>0.63194444444444442</v>
       </c>
@@ -8565,7 +8623,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -8627,7 +8685,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>0.375</v>
       </c>
@@ -8689,7 +8747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>0.375</v>
       </c>
@@ -8751,7 +8809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -8813,7 +8871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -8875,7 +8933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -8937,7 +8995,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -8999,7 +9057,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>0.61597222222222225</v>
       </c>
@@ -9061,7 +9119,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>0.3576388888888889</v>
       </c>
@@ -9123,7 +9181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -9185,7 +9243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>0.5</v>
       </c>
@@ -9247,7 +9305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>0.62152777777777779</v>
       </c>
@@ -9309,7 +9367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -9371,7 +9429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>0.56597222222222221</v>
       </c>
@@ -9433,7 +9491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>0.35833333333333334</v>
       </c>
@@ -9495,7 +9553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>0.4861111111111111</v>
       </c>
@@ -9557,7 +9615,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -9619,7 +9677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -9681,7 +9739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>0.5</v>
       </c>
@@ -9743,7 +9801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>0.375</v>
       </c>
@@ -9805,7 +9863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>0.375</v>
       </c>
@@ -9867,7 +9925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>0.55347222222222225</v>
       </c>
@@ -9929,7 +9987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>0.4909722222222222</v>
       </c>
@@ -9991,7 +10049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -10053,7 +10111,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -10115,7 +10173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -10177,7 +10235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>0.61458333333333337</v>
       </c>
@@ -10239,7 +10297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>0.54861111111111116</v>
       </c>
@@ -10301,7 +10359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -10363,7 +10421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>0.375</v>
       </c>
@@ -10425,7 +10483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -10487,7 +10545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -10549,7 +10607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -10611,7 +10669,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -10673,7 +10731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -10735,7 +10793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -10797,7 +10855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -10859,7 +10917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>0.4548611111111111</v>
       </c>
@@ -10921,7 +10979,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>0.47569444444444442</v>
       </c>
@@ -10983,7 +11041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>0.55208333333333337</v>
       </c>
@@ -11045,7 +11103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>0.61458333333333337</v>
       </c>
@@ -11107,7 +11165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -11169,7 +11227,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -11231,7 +11289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -11293,7 +11351,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>0.4201388888888889</v>
       </c>
@@ -11355,7 +11413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>0.46180555555555558</v>
       </c>
@@ -11417,7 +11475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -11479,7 +11537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>0.375</v>
       </c>
@@ -11541,7 +11599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -11603,7 +11661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -11665,7 +11723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>0.4597222222222222</v>
       </c>
@@ -11727,7 +11785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>0.61458333333333337</v>
       </c>
@@ -11789,7 +11847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -11851,7 +11909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11913,7 +11971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>0.4826388888888889</v>
       </c>
@@ -11975,7 +12033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -12037,7 +12095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -12099,7 +12157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>0.34722222222222221</v>
       </c>
@@ -12161,7 +12219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -12223,7 +12281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -12347,7 +12405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -12533,7 +12591,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -12595,7 +12653,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -12719,7 +12777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>0.50347222222222221</v>
       </c>
@@ -12781,7 +12839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -12905,7 +12963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>0.63194444444444442</v>
       </c>
@@ -12967,7 +13025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -13215,7 +13273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>0.625</v>
       </c>
@@ -13277,7 +13335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -13401,7 +13459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>0.56944444444444442</v>
       </c>
@@ -13463,7 +13521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -13649,7 +13707,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -13773,7 +13831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>0.59375</v>
       </c>
@@ -13897,7 +13955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>0.66319444444444442</v>
       </c>
@@ -14021,7 +14079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -14269,7 +14327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -14331,7 +14389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -14393,7 +14451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -14517,7 +14575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>0.35069444444444442</v>
       </c>
@@ -14579,7 +14637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -14641,7 +14699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>0.58750000000000002</v>
       </c>
@@ -14703,7 +14761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -14889,7 +14947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>0.50694444444444442</v>
       </c>
@@ -15013,7 +15071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -15075,7 +15133,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -15137,7 +15195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>0.51388888888888884</v>
       </c>
@@ -15199,7 +15257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -15261,7 +15319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>0.63194444444444442</v>
       </c>
@@ -15509,7 +15567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -15621,7 +15679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -15677,7 +15735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -15801,7 +15859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -15863,7 +15921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -16049,7 +16107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>0.53125</v>
       </c>
@@ -16111,7 +16169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -16297,7 +16355,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>0.46875</v>
       </c>
@@ -16359,7 +16417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>0.59027777777777779</v>
       </c>
@@ -16483,7 +16541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -16545,7 +16603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -16607,7 +16665,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -16731,7 +16789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>0.5625</v>
       </c>
@@ -16855,7 +16913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -16917,7 +16975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -17041,7 +17099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>0.375</v>
       </c>
@@ -17165,7 +17223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -17227,7 +17285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -17289,7 +17347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>0.375</v>
       </c>
@@ -17413,7 +17471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -17475,7 +17533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>0.4375</v>
       </c>
@@ -17537,7 +17595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>0.4375</v>
       </c>
@@ -17661,7 +17719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>0.59375</v>
       </c>
@@ -17723,7 +17781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>0.37152777777777779</v>
       </c>
@@ -17909,7 +17967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>0.4597222222222222</v>
       </c>
@@ -17971,7 +18029,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -18033,7 +18091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -18219,7 +18277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -18343,7 +18401,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>0.49791666666666667</v>
       </c>
@@ -18405,7 +18463,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -18467,7 +18525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -18529,7 +18587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -18653,7 +18711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>0.61041666666666672</v>
       </c>
@@ -18777,7 +18835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>0.37847222222222221</v>
       </c>
@@ -18901,7 +18959,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>0.64930555555555558</v>
       </c>
@@ -18963,7 +19021,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>0.375</v>
       </c>
@@ -19087,7 +19145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -19211,7 +19269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>0.375</v>
       </c>
@@ -19273,7 +19331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>0.6791666666666667</v>
       </c>
@@ -19397,7 +19455,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>0.375</v>
       </c>
@@ -19521,7 +19579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -19645,7 +19703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -19831,7 +19889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -19955,7 +20013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>0.62847222222222221</v>
       </c>
@@ -20017,7 +20075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>0.375</v>
       </c>
@@ -20141,7 +20199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>0.4777777777777778</v>
       </c>
@@ -20327,7 +20385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -20389,7 +20447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>0.375</v>
       </c>
@@ -20513,7 +20571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -20637,7 +20695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -20699,7 +20757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -20823,7 +20881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -20947,7 +21005,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21009,7 +21067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -21133,7 +21191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>0.59027777777777779</v>
       </c>
@@ -21319,7 +21377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -21381,7 +21439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -21505,7 +21563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21753,7 +21811,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21815,7 +21873,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21877,7 +21935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -21939,7 +21997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -22125,7 +22183,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22249,7 +22307,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22311,7 +22369,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -22373,7 +22431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22497,7 +22555,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22621,7 +22679,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22745,7 +22803,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22869,7 +22927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22931,7 +22989,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -22993,7 +23051,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23117,7 +23175,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23179,7 +23237,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23365,7 +23423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23427,7 +23485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23489,7 +23547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23613,7 +23671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23675,7 +23733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23799,7 +23857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -23923,7 +23981,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>0.375</v>
       </c>
@@ -24047,7 +24105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>0.375</v>
       </c>
@@ -24171,7 +24229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>0.375</v>
       </c>
@@ -24295,7 +24353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -24419,7 +24477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>0.4375</v>
       </c>
@@ -24543,7 +24601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -24605,7 +24663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -24667,7 +24725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -24729,7 +24787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -24791,7 +24849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -24853,7 +24911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -24915,7 +24973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>0.375</v>
       </c>
@@ -25039,7 +25097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -25163,7 +25221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>0.59375</v>
       </c>
@@ -25225,7 +25283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>0.40625</v>
       </c>
@@ -25287,7 +25345,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -25349,7 +25407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>0.60763888888888884</v>
       </c>
@@ -25473,7 +25531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -25535,7 +25593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -25597,7 +25655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -25721,7 +25779,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -25783,7 +25841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -25907,7 +25965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>0.5854166666666667</v>
       </c>
@@ -25969,7 +26027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -26031,7 +26089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>0.63541666666666663</v>
       </c>
@@ -26093,7 +26151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -26155,7 +26213,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>0.63888888888888884</v>
       </c>
@@ -26217,7 +26275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -26341,7 +26399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -26403,7 +26461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>0.34375</v>
       </c>
@@ -26465,7 +26523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -26589,7 +26647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -26651,7 +26709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>0.375</v>
       </c>
@@ -26713,7 +26771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>0.39097222222222222</v>
       </c>
@@ -26775,7 +26833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>0.50347222222222221</v>
       </c>
@@ -26837,7 +26895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>0.48819444444444443</v>
       </c>
@@ -26899,7 +26957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>0.5625</v>
       </c>
@@ -26961,7 +27019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -27023,7 +27081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -27085,7 +27143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -27147,7 +27205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>0.375</v>
       </c>
@@ -27209,7 +27267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -27271,7 +27329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>0.6069444444444444</v>
       </c>
@@ -27333,7 +27391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -27395,7 +27453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>0.61805555555555558</v>
       </c>
@@ -27457,7 +27515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -27519,7 +27577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -27581,7 +27639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>0.47222222222222221</v>
       </c>
@@ -27643,7 +27701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -27705,7 +27763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -27767,7 +27825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>0.59375</v>
       </c>
@@ -27891,7 +27949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -28015,7 +28073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -28077,7 +28135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>0.44444444444444442</v>
       </c>
@@ -28139,7 +28197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -28201,7 +28259,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -28263,7 +28321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -28325,7 +28383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -28385,7 +28443,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -28447,7 +28505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -28509,7 +28567,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>0.46875</v>
       </c>
@@ -28695,7 +28753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -28757,7 +28815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>0.40625</v>
       </c>
@@ -28881,7 +28939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -28943,7 +29001,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -29067,7 +29125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -29129,7 +29187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -29191,7 +29249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -29253,7 +29311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -29377,7 +29435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -29439,7 +29497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -29563,7 +29621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>0.56944444444444442</v>
       </c>
@@ -29625,7 +29683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -29687,7 +29745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -29749,7 +29807,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -29811,7 +29869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -29935,7 +29993,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>0.59375</v>
       </c>
@@ -29997,7 +30055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -30059,7 +30117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -30121,7 +30179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>0.61111111111111116</v>
       </c>
@@ -30183,7 +30241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -30307,7 +30365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>0.4375</v>
       </c>
@@ -30369,7 +30427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>0.4375</v>
       </c>
@@ -30431,7 +30489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -30493,7 +30551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>0.57638888888888884</v>
       </c>
@@ -30617,7 +30675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -30679,7 +30737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -30741,7 +30799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>0.5</v>
       </c>
@@ -30803,7 +30861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -30865,7 +30923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -30927,7 +30985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -30989,7 +31047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -31113,7 +31171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>0.40347222222222223</v>
       </c>
@@ -31175,7 +31233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -31299,7 +31357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -31361,7 +31419,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>0.48958333333333331</v>
       </c>
@@ -31423,7 +31481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -31485,7 +31543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -31547,7 +31605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>0.375</v>
       </c>
@@ -31609,7 +31667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>0.375</v>
       </c>
@@ -31671,7 +31729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>0.46527777777777779</v>
       </c>
@@ -31733,7 +31791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>0.4548611111111111</v>
       </c>
@@ -31919,7 +31977,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>0.5</v>
       </c>
@@ -31981,7 +32039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>0.5</v>
       </c>
@@ -32043,7 +32101,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -32105,7 +32163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>0.375</v>
       </c>
@@ -32167,7 +32225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>0.5</v>
       </c>
@@ -32415,7 +32473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>0.625</v>
       </c>
@@ -32477,7 +32535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>0.625</v>
       </c>
@@ -32539,7 +32597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -32601,7 +32659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -32663,7 +32721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -32725,7 +32783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -32849,7 +32907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -32911,7 +32969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -32973,7 +33031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -33035,7 +33093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -33097,7 +33155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -33159,7 +33217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>0.375</v>
       </c>
@@ -33221,7 +33279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>0.375</v>
       </c>
@@ -33345,7 +33403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>0.43402777777777779</v>
       </c>
@@ -33469,7 +33527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -33531,7 +33589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -33593,7 +33651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -33655,7 +33713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>0.375</v>
       </c>
@@ -33779,7 +33837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>0.40277777777777779</v>
       </c>
@@ -33841,7 +33899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>0.4375</v>
       </c>
@@ -33903,7 +33961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>0.4375</v>
       </c>
@@ -33965,7 +34023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>0.55208333333333337</v>
       </c>
@@ -34027,7 +34085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>0.58680555555555558</v>
       </c>
@@ -34089,7 +34147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>0.62847222222222221</v>
       </c>
@@ -34151,7 +34209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>0.36805555555555558</v>
       </c>
@@ -34213,7 +34271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>0.375</v>
       </c>
@@ -34275,7 +34333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -34399,7 +34457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -34461,7 +34519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -34523,7 +34581,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -34585,7 +34643,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -34647,7 +34705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -34709,7 +34767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -34771,7 +34829,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -34833,7 +34891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -34895,7 +34953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -34957,7 +35015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -35019,7 +35077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>0.5</v>
       </c>
@@ -35081,7 +35139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35205,7 +35263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>0.64583333333333337</v>
       </c>
@@ -35267,7 +35325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -35329,7 +35387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>0.44444444444444442</v>
       </c>
@@ -35391,7 +35449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35453,7 +35511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35515,7 +35573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>0.375</v>
       </c>
@@ -35577,7 +35635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -35639,7 +35697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="534" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>0.44444444444444442</v>
       </c>
@@ -35701,7 +35759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -35763,7 +35821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="536" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>0.38541666666666669</v>
       </c>
@@ -35825,7 +35883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>0.49305555555555558</v>
       </c>
@@ -35887,7 +35945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -35949,7 +36007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -36011,7 +36069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -36073,7 +36131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -36135,7 +36193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>0.34375</v>
       </c>
@@ -36197,7 +36255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>0.34375</v>
       </c>
@@ -36259,7 +36317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>0.47222222222222221</v>
       </c>
@@ -36321,7 +36379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="545" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36383,7 +36441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="546" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36445,7 +36503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36569,7 +36627,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36693,7 +36751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="551" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36755,7 +36813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="552" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -36817,7 +36875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="553" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37127,7 +37185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37251,7 +37309,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37313,7 +37371,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37437,7 +37495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37561,7 +37619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37685,7 +37743,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37809,7 +37867,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -37871,7 +37929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>0.375</v>
       </c>
@@ -37933,7 +37991,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>0.375</v>
       </c>
@@ -37995,14 +38053,14 @@
         <v>550</v>
       </c>
     </row>
-    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>0.375</v>
       </c>
       <c r="B572" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C572">
+      <c r="C572" s="2">
         <v>6.25E-2</v>
       </c>
       <c r="D572" t="s">
@@ -38119,7 +38177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>0.4236111111111111</v>
       </c>
@@ -38181,7 +38239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -38243,14 +38301,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B576" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C576">
+      <c r="C576" s="2">
         <v>0.125</v>
       </c>
       <c r="D576" t="s">
@@ -38305,14 +38363,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B577" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C577">
+      <c r="C577" s="2">
         <v>0.125</v>
       </c>
       <c r="D577" t="s">
@@ -38367,14 +38425,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B578" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C578">
+      <c r="C578" s="2">
         <v>0.125</v>
       </c>
       <c r="D578" t="s">
@@ -38429,14 +38487,14 @@
         <v>550</v>
       </c>
     </row>
-    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B579" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C579">
+      <c r="C579" s="2">
         <v>0.125</v>
       </c>
       <c r="D579" t="s">
@@ -38491,14 +38549,14 @@
         <v>550</v>
       </c>
     </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B580" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C580">
+      <c r="C580" s="2">
         <v>0.125</v>
       </c>
       <c r="D580" t="s">
@@ -38553,14 +38611,14 @@
         <v>550</v>
       </c>
     </row>
-    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B581" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C581">
+      <c r="C581" s="2">
         <v>0.125</v>
       </c>
       <c r="D581" t="s">
@@ -38622,7 +38680,7 @@
       <c r="B582" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C582">
+      <c r="C582" s="5">
         <v>0.125</v>
       </c>
       <c r="D582" t="s">
@@ -38684,7 +38742,7 @@
       <c r="B583" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C583">
+      <c r="C583" s="5">
         <v>0.125</v>
       </c>
       <c r="D583" t="s">
@@ -38746,7 +38804,7 @@
       <c r="B584" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C584">
+      <c r="C584" s="5">
         <v>0.125</v>
       </c>
       <c r="D584" t="s">
@@ -38808,7 +38866,7 @@
       <c r="B585" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C585">
+      <c r="C585" s="5">
         <v>0.125</v>
       </c>
       <c r="D585" t="s">
@@ -38870,7 +38928,7 @@
       <c r="B586" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C586">
+      <c r="C586" s="5">
         <v>0.125</v>
       </c>
       <c r="D586" t="s">
@@ -38932,7 +38990,7 @@
       <c r="B587" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C587">
+      <c r="C587" s="5">
         <v>0.125</v>
       </c>
       <c r="D587" t="s">
@@ -38984,7 +39042,7 @@
         <v>635</v>
       </c>
       <c r="T587" t="s">
-        <v>170</v>
+        <v>550</v>
       </c>
     </row>
     <row r="588" spans="1:20" x14ac:dyDescent="0.3">
@@ -38994,7 +39052,7 @@
       <c r="B588" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C588">
+      <c r="C588" s="5">
         <v>0.125</v>
       </c>
       <c r="D588" t="s">
@@ -39056,7 +39114,7 @@
       <c r="B589" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C589">
+      <c r="C589" s="5">
         <v>0.125</v>
       </c>
       <c r="D589" t="s">
@@ -39118,7 +39176,7 @@
       <c r="B590" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C590">
+      <c r="C590" s="5">
         <v>0.125</v>
       </c>
       <c r="D590" t="s">
@@ -39180,7 +39238,7 @@
       <c r="B591" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C591">
+      <c r="C591" s="5">
         <v>0.125</v>
       </c>
       <c r="D591" t="s">
@@ -39242,7 +39300,7 @@
       <c r="B592" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C592">
+      <c r="C592" s="5">
         <v>0.125</v>
       </c>
       <c r="D592" t="s">
@@ -39297,29 +39355,3300 @@
         <v>550</v>
       </c>
     </row>
+    <row r="593" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A593" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B593" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C593" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D593" t="s">
+        <v>12</v>
+      </c>
+      <c r="E593" t="s">
+        <v>53</v>
+      </c>
+      <c r="F593">
+        <v>67</v>
+      </c>
+      <c r="G593">
+        <v>20.099999999999998</v>
+      </c>
+      <c r="H593">
+        <v>21</v>
+      </c>
+      <c r="I593">
+        <v>6.3</v>
+      </c>
+      <c r="J593" t="s">
+        <v>174</v>
+      </c>
+      <c r="K593" t="s">
+        <v>55</v>
+      </c>
+      <c r="L593" t="s">
+        <v>84</v>
+      </c>
+      <c r="M593" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N593" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O593" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P593" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q593" t="s">
+        <v>67</v>
+      </c>
+      <c r="R593" t="s">
+        <v>88</v>
+      </c>
+      <c r="S593" t="s">
+        <v>639</v>
+      </c>
+      <c r="T593" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="594" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A594" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B594" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C594" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D594" t="s">
+        <v>473</v>
+      </c>
+      <c r="E594" t="s">
+        <v>81</v>
+      </c>
+      <c r="F594">
+        <v>28</v>
+      </c>
+      <c r="G594">
+        <v>25.2</v>
+      </c>
+      <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>2.7</v>
+      </c>
+      <c r="J594" t="s">
+        <v>174</v>
+      </c>
+      <c r="K594" t="s">
+        <v>55</v>
+      </c>
+      <c r="L594" t="s">
+        <v>84</v>
+      </c>
+      <c r="M594" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N594" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O594" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P594" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q594" t="s">
+        <v>67</v>
+      </c>
+      <c r="R594" t="s">
+        <v>88</v>
+      </c>
+      <c r="S594" t="s">
+        <v>639</v>
+      </c>
+      <c r="T594" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="595" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A595" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B595" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C595" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D595" t="s">
+        <v>637</v>
+      </c>
+      <c r="E595" t="s">
+        <v>53</v>
+      </c>
+      <c r="F595">
+        <v>20</v>
+      </c>
+      <c r="G595">
+        <v>20</v>
+      </c>
+      <c r="H595">
+        <v>20</v>
+      </c>
+      <c r="I595">
+        <v>20</v>
+      </c>
+      <c r="J595" t="s">
+        <v>174</v>
+      </c>
+      <c r="K595" t="s">
+        <v>55</v>
+      </c>
+      <c r="L595" t="s">
+        <v>84</v>
+      </c>
+      <c r="M595" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N595" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O595" s="4">
+        <v>1</v>
+      </c>
+      <c r="P595" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q595" t="s">
+        <v>67</v>
+      </c>
+      <c r="R595" t="s">
+        <v>88</v>
+      </c>
+      <c r="S595" t="s">
+        <v>639</v>
+      </c>
+      <c r="T595" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="596" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A596" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B596" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C596" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D596" t="s">
+        <v>19</v>
+      </c>
+      <c r="E596" t="s">
+        <v>71</v>
+      </c>
+      <c r="F596">
+        <v>10</v>
+      </c>
+      <c r="G596">
+        <v>8</v>
+      </c>
+      <c r="H596">
+        <v>1</v>
+      </c>
+      <c r="I596">
+        <v>0.8</v>
+      </c>
+      <c r="J596" t="s">
+        <v>174</v>
+      </c>
+      <c r="K596" t="s">
+        <v>55</v>
+      </c>
+      <c r="L596" t="s">
+        <v>84</v>
+      </c>
+      <c r="M596" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N596" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O596" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P596" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q596" t="s">
+        <v>67</v>
+      </c>
+      <c r="R596" t="s">
+        <v>88</v>
+      </c>
+      <c r="S596" t="s">
+        <v>639</v>
+      </c>
+      <c r="T596" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="597" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A597" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B597" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C597" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D597" t="s">
+        <v>640</v>
+      </c>
+      <c r="E597" t="s">
+        <v>81</v>
+      </c>
+      <c r="F597">
+        <v>4</v>
+      </c>
+      <c r="G597">
+        <v>4</v>
+      </c>
+      <c r="H597">
+        <v>1</v>
+      </c>
+      <c r="I597">
+        <v>1</v>
+      </c>
+      <c r="J597" t="s">
+        <v>174</v>
+      </c>
+      <c r="K597" t="s">
+        <v>55</v>
+      </c>
+      <c r="L597" t="s">
+        <v>84</v>
+      </c>
+      <c r="M597" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N597" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O597" s="4">
+        <v>1</v>
+      </c>
+      <c r="P597" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q597" t="s">
+        <v>67</v>
+      </c>
+      <c r="R597" t="s">
+        <v>88</v>
+      </c>
+      <c r="S597" t="s">
+        <v>639</v>
+      </c>
+      <c r="T597" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="598" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A598" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B598" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C598" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D598" t="s">
+        <v>40</v>
+      </c>
+      <c r="E598" t="s">
+        <v>53</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+      <c r="I598">
+        <v>0</v>
+      </c>
+      <c r="J598" t="s">
+        <v>174</v>
+      </c>
+      <c r="K598" t="s">
+        <v>55</v>
+      </c>
+      <c r="L598" t="s">
+        <v>84</v>
+      </c>
+      <c r="M598" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N598" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O598" s="4">
+        <v>0</v>
+      </c>
+      <c r="P598" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q598" t="s">
+        <v>67</v>
+      </c>
+      <c r="R598" t="s">
+        <v>88</v>
+      </c>
+      <c r="S598" t="s">
+        <v>639</v>
+      </c>
+      <c r="T598" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="599" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A599" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B599" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C599" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D599" t="s">
+        <v>79</v>
+      </c>
+      <c r="E599" t="s">
+        <v>53</v>
+      </c>
+      <c r="F599">
+        <v>37</v>
+      </c>
+      <c r="G599">
+        <v>3.7</v>
+      </c>
+      <c r="H599">
+        <v>2</v>
+      </c>
+      <c r="I599">
+        <v>0.2</v>
+      </c>
+      <c r="J599" t="s">
+        <v>225</v>
+      </c>
+      <c r="K599" t="s">
+        <v>55</v>
+      </c>
+      <c r="L599" t="s">
+        <v>84</v>
+      </c>
+      <c r="M599" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N599" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O599" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P599" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q599" t="s">
+        <v>67</v>
+      </c>
+      <c r="R599" t="s">
+        <v>88</v>
+      </c>
+      <c r="S599" t="s">
+        <v>641</v>
+      </c>
+      <c r="T599" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="600" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A600" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B600" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C600" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D600" t="s">
+        <v>42</v>
+      </c>
+      <c r="E600" t="s">
+        <v>71</v>
+      </c>
+      <c r="F600">
+        <v>24</v>
+      </c>
+      <c r="G600">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H600">
+        <v>2</v>
+      </c>
+      <c r="I600">
+        <v>0.2</v>
+      </c>
+      <c r="J600" t="s">
+        <v>225</v>
+      </c>
+      <c r="K600" t="s">
+        <v>55</v>
+      </c>
+      <c r="L600" t="s">
+        <v>84</v>
+      </c>
+      <c r="M600" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N600" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O600" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P600" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q600" t="s">
+        <v>67</v>
+      </c>
+      <c r="R600" t="s">
+        <v>88</v>
+      </c>
+      <c r="S600" t="s">
+        <v>641</v>
+      </c>
+      <c r="T600" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="601" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A601" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B601" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C601" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D601" t="s">
+        <v>39</v>
+      </c>
+      <c r="E601" t="s">
+        <v>69</v>
+      </c>
+      <c r="F601">
+        <v>20</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>1</v>
+      </c>
+      <c r="I601">
+        <v>0</v>
+      </c>
+      <c r="J601" t="s">
+        <v>225</v>
+      </c>
+      <c r="K601" t="s">
+        <v>55</v>
+      </c>
+      <c r="L601" t="s">
+        <v>84</v>
+      </c>
+      <c r="M601" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N601" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O601" s="4">
+        <v>0</v>
+      </c>
+      <c r="P601" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q601" t="s">
+        <v>67</v>
+      </c>
+      <c r="R601" t="s">
+        <v>88</v>
+      </c>
+      <c r="S601" t="s">
+        <v>641</v>
+      </c>
+      <c r="T601" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="602" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A602" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B602" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C602" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D602" t="s">
+        <v>623</v>
+      </c>
+      <c r="E602" t="s">
+        <v>51</v>
+      </c>
+      <c r="F602">
+        <v>7</v>
+      </c>
+      <c r="G602">
+        <v>6.3</v>
+      </c>
+      <c r="H602">
+        <v>2</v>
+      </c>
+      <c r="I602">
+        <v>1.8</v>
+      </c>
+      <c r="J602" t="s">
+        <v>225</v>
+      </c>
+      <c r="K602" t="s">
+        <v>55</v>
+      </c>
+      <c r="L602" t="s">
+        <v>84</v>
+      </c>
+      <c r="M602" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N602" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O602" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P602" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q602" t="s">
+        <v>67</v>
+      </c>
+      <c r="R602" t="s">
+        <v>88</v>
+      </c>
+      <c r="S602" t="s">
+        <v>641</v>
+      </c>
+      <c r="T602" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="603" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A603" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B603" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C603" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D603" t="s">
+        <v>625</v>
+      </c>
+      <c r="E603" t="s">
+        <v>81</v>
+      </c>
+      <c r="F603">
+        <v>3</v>
+      </c>
+      <c r="G603">
+        <v>3</v>
+      </c>
+      <c r="H603">
+        <v>2</v>
+      </c>
+      <c r="I603">
+        <v>2</v>
+      </c>
+      <c r="J603" t="s">
+        <v>225</v>
+      </c>
+      <c r="K603" t="s">
+        <v>55</v>
+      </c>
+      <c r="L603" t="s">
+        <v>84</v>
+      </c>
+      <c r="M603" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N603" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O603" s="4">
+        <v>1</v>
+      </c>
+      <c r="P603" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q603" t="s">
+        <v>67</v>
+      </c>
+      <c r="R603" t="s">
+        <v>88</v>
+      </c>
+      <c r="S603" t="s">
+        <v>641</v>
+      </c>
+      <c r="T603" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="604" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A604" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B604" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C604" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D604" t="s">
+        <v>626</v>
+      </c>
+      <c r="E604" t="s">
+        <v>612</v>
+      </c>
+      <c r="F604">
+        <v>1</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604">
+        <v>1</v>
+      </c>
+      <c r="I604">
+        <v>0</v>
+      </c>
+      <c r="J604" t="s">
+        <v>225</v>
+      </c>
+      <c r="K604" t="s">
+        <v>55</v>
+      </c>
+      <c r="L604" t="s">
+        <v>84</v>
+      </c>
+      <c r="M604" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N604" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O604" s="4">
+        <v>0</v>
+      </c>
+      <c r="P604" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q604" t="s">
+        <v>67</v>
+      </c>
+      <c r="R604" t="s">
+        <v>88</v>
+      </c>
+      <c r="S604" t="s">
+        <v>641</v>
+      </c>
+      <c r="T604" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="605" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A605" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B605" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C605" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D605" t="s">
+        <v>636</v>
+      </c>
+      <c r="E605" t="s">
+        <v>71</v>
+      </c>
+      <c r="F605">
+        <v>31</v>
+      </c>
+      <c r="G605">
+        <v>27.900000000000002</v>
+      </c>
+      <c r="H605">
+        <v>31</v>
+      </c>
+      <c r="I605">
+        <v>27.900000000000002</v>
+      </c>
+      <c r="J605" t="s">
+        <v>615</v>
+      </c>
+      <c r="K605" t="s">
+        <v>55</v>
+      </c>
+      <c r="L605" t="s">
+        <v>84</v>
+      </c>
+      <c r="M605" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N605" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O605" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P605" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q605" t="s">
+        <v>67</v>
+      </c>
+      <c r="R605" t="s">
+        <v>88</v>
+      </c>
+      <c r="S605" t="s">
+        <v>642</v>
+      </c>
+      <c r="T605" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="606" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A606" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B606" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C606" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D606" t="s">
+        <v>619</v>
+      </c>
+      <c r="E606" t="s">
+        <v>69</v>
+      </c>
+      <c r="F606">
+        <v>20</v>
+      </c>
+      <c r="G606">
+        <v>20</v>
+      </c>
+      <c r="H606">
+        <v>20</v>
+      </c>
+      <c r="I606">
+        <v>20</v>
+      </c>
+      <c r="J606" t="s">
+        <v>615</v>
+      </c>
+      <c r="K606" t="s">
+        <v>55</v>
+      </c>
+      <c r="L606" t="s">
+        <v>84</v>
+      </c>
+      <c r="M606" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N606" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O606" s="4">
+        <v>1</v>
+      </c>
+      <c r="P606" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q606" t="s">
+        <v>67</v>
+      </c>
+      <c r="R606" t="s">
+        <v>88</v>
+      </c>
+      <c r="S606" t="s">
+        <v>642</v>
+      </c>
+      <c r="T606" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="607" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A607" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B607" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C607" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D607" t="s">
+        <v>18</v>
+      </c>
+      <c r="E607" t="s">
+        <v>247</v>
+      </c>
+      <c r="F607">
+        <v>12</v>
+      </c>
+      <c r="G607">
+        <v>10.8</v>
+      </c>
+      <c r="H607">
+        <v>3</v>
+      </c>
+      <c r="I607">
+        <v>2.7</v>
+      </c>
+      <c r="J607" t="s">
+        <v>615</v>
+      </c>
+      <c r="K607" t="s">
+        <v>55</v>
+      </c>
+      <c r="L607" t="s">
+        <v>84</v>
+      </c>
+      <c r="M607" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N607" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O607" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P607" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q607" t="s">
+        <v>67</v>
+      </c>
+      <c r="R607" t="s">
+        <v>88</v>
+      </c>
+      <c r="S607" t="s">
+        <v>642</v>
+      </c>
+      <c r="T607" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="608" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A608" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B608" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C608" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D608" t="s">
+        <v>643</v>
+      </c>
+      <c r="E608" t="s">
+        <v>168</v>
+      </c>
+      <c r="F608">
+        <v>5</v>
+      </c>
+      <c r="G608">
+        <v>5</v>
+      </c>
+      <c r="H608">
+        <v>5</v>
+      </c>
+      <c r="I608">
+        <v>5</v>
+      </c>
+      <c r="J608" t="s">
+        <v>615</v>
+      </c>
+      <c r="K608" t="s">
+        <v>55</v>
+      </c>
+      <c r="L608" t="s">
+        <v>84</v>
+      </c>
+      <c r="M608" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N608" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O608" s="4">
+        <v>1</v>
+      </c>
+      <c r="P608" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q608" t="s">
+        <v>67</v>
+      </c>
+      <c r="R608" t="s">
+        <v>88</v>
+      </c>
+      <c r="S608" t="s">
+        <v>642</v>
+      </c>
+      <c r="T608" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="609" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A609" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B609" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C609" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D609" t="s">
+        <v>65</v>
+      </c>
+      <c r="E609" t="s">
+        <v>247</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609">
+        <v>1</v>
+      </c>
+      <c r="I609">
+        <v>1</v>
+      </c>
+      <c r="J609" t="s">
+        <v>615</v>
+      </c>
+      <c r="K609" t="s">
+        <v>55</v>
+      </c>
+      <c r="L609" t="s">
+        <v>84</v>
+      </c>
+      <c r="M609" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N609" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O609" s="4">
+        <v>1</v>
+      </c>
+      <c r="P609" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q609" t="s">
+        <v>67</v>
+      </c>
+      <c r="R609" t="s">
+        <v>88</v>
+      </c>
+      <c r="S609" t="s">
+        <v>642</v>
+      </c>
+      <c r="T609" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="610" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A610" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B610" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C610" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D610" t="s">
+        <v>70</v>
+      </c>
+      <c r="E610" t="s">
+        <v>69</v>
+      </c>
+      <c r="F610">
+        <v>47</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>1</v>
+      </c>
+      <c r="I610">
+        <v>0</v>
+      </c>
+      <c r="J610" t="s">
+        <v>613</v>
+      </c>
+      <c r="K610" t="s">
+        <v>55</v>
+      </c>
+      <c r="L610" t="s">
+        <v>84</v>
+      </c>
+      <c r="M610" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N610" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O610" s="4">
+        <v>0</v>
+      </c>
+      <c r="P610" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q610" t="s">
+        <v>67</v>
+      </c>
+      <c r="R610" t="s">
+        <v>88</v>
+      </c>
+      <c r="S610" t="s">
+        <v>644</v>
+      </c>
+      <c r="T610" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="611" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A611" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B611" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C611" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D611" t="s">
+        <v>620</v>
+      </c>
+      <c r="E611" t="s">
+        <v>81</v>
+      </c>
+      <c r="F611">
+        <v>20</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>2</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+      <c r="J611" t="s">
+        <v>613</v>
+      </c>
+      <c r="K611" t="s">
+        <v>55</v>
+      </c>
+      <c r="L611" t="s">
+        <v>84</v>
+      </c>
+      <c r="M611" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N611" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O611" s="4">
+        <v>0</v>
+      </c>
+      <c r="P611" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q611" t="s">
+        <v>67</v>
+      </c>
+      <c r="R611" t="s">
+        <v>88</v>
+      </c>
+      <c r="S611" t="s">
+        <v>644</v>
+      </c>
+      <c r="T611" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="612" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A612" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B612" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C612" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D612" t="s">
+        <v>627</v>
+      </c>
+      <c r="E612" t="s">
+        <v>81</v>
+      </c>
+      <c r="F612">
+        <v>12</v>
+      </c>
+      <c r="G612">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="H612">
+        <v>5</v>
+      </c>
+      <c r="I612">
+        <v>4</v>
+      </c>
+      <c r="J612" t="s">
+        <v>613</v>
+      </c>
+      <c r="K612" t="s">
+        <v>55</v>
+      </c>
+      <c r="L612" t="s">
+        <v>84</v>
+      </c>
+      <c r="M612" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N612" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O612" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P612" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q612" t="s">
+        <v>67</v>
+      </c>
+      <c r="R612" t="s">
+        <v>88</v>
+      </c>
+      <c r="S612" t="s">
+        <v>644</v>
+      </c>
+      <c r="T612" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="613" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A613" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B613" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C613" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D613" t="s">
+        <v>634</v>
+      </c>
+      <c r="E613" t="s">
+        <v>612</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+      <c r="G613">
+        <v>2</v>
+      </c>
+      <c r="H613">
+        <v>1</v>
+      </c>
+      <c r="I613">
+        <v>1</v>
+      </c>
+      <c r="J613" t="s">
+        <v>613</v>
+      </c>
+      <c r="K613" t="s">
+        <v>55</v>
+      </c>
+      <c r="L613" t="s">
+        <v>84</v>
+      </c>
+      <c r="M613" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N613" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O613" s="4">
+        <v>1</v>
+      </c>
+      <c r="P613" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q613" t="s">
+        <v>67</v>
+      </c>
+      <c r="R613" t="s">
+        <v>88</v>
+      </c>
+      <c r="S613" t="s">
+        <v>644</v>
+      </c>
+      <c r="T613" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="614" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A614" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B614" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C614" s="5">
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="D614" t="s">
+        <v>633</v>
+      </c>
+      <c r="E614" t="s">
+        <v>612</v>
+      </c>
+      <c r="F614">
+        <v>1</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+      <c r="I614">
+        <v>0</v>
+      </c>
+      <c r="J614" t="s">
+        <v>613</v>
+      </c>
+      <c r="K614" t="s">
+        <v>55</v>
+      </c>
+      <c r="L614" t="s">
+        <v>84</v>
+      </c>
+      <c r="M614" s="3">
+        <v>45877</v>
+      </c>
+      <c r="N614" s="3">
+        <v>45877</v>
+      </c>
+      <c r="O614" s="4">
+        <v>0</v>
+      </c>
+      <c r="P614" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q614" t="s">
+        <v>67</v>
+      </c>
+      <c r="R614" t="s">
+        <v>88</v>
+      </c>
+      <c r="S614" t="s">
+        <v>644</v>
+      </c>
+      <c r="T614" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="615" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A615" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B615" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C615" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D615" t="s">
+        <v>39</v>
+      </c>
+      <c r="E615" t="s">
+        <v>69</v>
+      </c>
+      <c r="F615">
+        <v>30</v>
+      </c>
+      <c r="G615">
+        <v>30</v>
+      </c>
+      <c r="H615">
+        <v>3</v>
+      </c>
+      <c r="I615">
+        <v>3</v>
+      </c>
+      <c r="J615" t="s">
+        <v>615</v>
+      </c>
+      <c r="K615" t="s">
+        <v>55</v>
+      </c>
+      <c r="L615" t="s">
+        <v>84</v>
+      </c>
+      <c r="M615" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N615" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O615" s="4">
+        <v>1</v>
+      </c>
+      <c r="P615" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q615" t="s">
+        <v>67</v>
+      </c>
+      <c r="R615" t="s">
+        <v>88</v>
+      </c>
+      <c r="S615" t="s">
+        <v>645</v>
+      </c>
+      <c r="T615" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="616" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A616" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B616" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C616" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D616" t="s">
+        <v>28</v>
+      </c>
+      <c r="E616" t="s">
+        <v>71</v>
+      </c>
+      <c r="F616">
+        <v>23</v>
+      </c>
+      <c r="G616">
+        <v>23</v>
+      </c>
+      <c r="H616">
+        <v>1</v>
+      </c>
+      <c r="I616">
+        <v>1</v>
+      </c>
+      <c r="J616" t="s">
+        <v>615</v>
+      </c>
+      <c r="K616" t="s">
+        <v>55</v>
+      </c>
+      <c r="L616" t="s">
+        <v>84</v>
+      </c>
+      <c r="M616" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N616" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O616" s="4">
+        <v>1</v>
+      </c>
+      <c r="P616" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q616" t="s">
+        <v>67</v>
+      </c>
+      <c r="R616" t="s">
+        <v>88</v>
+      </c>
+      <c r="S616" t="s">
+        <v>645</v>
+      </c>
+      <c r="T616" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="617" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A617" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B617" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C617" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D617" t="s">
+        <v>169</v>
+      </c>
+      <c r="E617" t="s">
+        <v>612</v>
+      </c>
+      <c r="F617">
+        <v>14</v>
+      </c>
+      <c r="G617">
+        <v>14</v>
+      </c>
+      <c r="H617">
+        <v>10</v>
+      </c>
+      <c r="I617">
+        <v>10</v>
+      </c>
+      <c r="J617" t="s">
+        <v>615</v>
+      </c>
+      <c r="K617" t="s">
+        <v>55</v>
+      </c>
+      <c r="L617" t="s">
+        <v>84</v>
+      </c>
+      <c r="M617" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N617" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O617" s="4">
+        <v>1</v>
+      </c>
+      <c r="P617" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q617" t="s">
+        <v>67</v>
+      </c>
+      <c r="R617" t="s">
+        <v>88</v>
+      </c>
+      <c r="S617" t="s">
+        <v>645</v>
+      </c>
+      <c r="T617" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="618" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A618" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B618" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C618" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D618" t="s">
+        <v>646</v>
+      </c>
+      <c r="E618" t="s">
+        <v>51</v>
+      </c>
+      <c r="F618">
+        <v>10</v>
+      </c>
+      <c r="G618">
+        <v>10</v>
+      </c>
+      <c r="H618">
+        <v>1</v>
+      </c>
+      <c r="I618">
+        <v>1</v>
+      </c>
+      <c r="J618" t="s">
+        <v>615</v>
+      </c>
+      <c r="K618" t="s">
+        <v>55</v>
+      </c>
+      <c r="L618" t="s">
+        <v>84</v>
+      </c>
+      <c r="M618" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N618" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O618" s="4">
+        <v>1</v>
+      </c>
+      <c r="P618" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q618" t="s">
+        <v>67</v>
+      </c>
+      <c r="R618" t="s">
+        <v>88</v>
+      </c>
+      <c r="S618" t="s">
+        <v>645</v>
+      </c>
+      <c r="T618" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="619" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A619" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B619" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C619" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D619" t="s">
+        <v>36</v>
+      </c>
+      <c r="E619" t="s">
+        <v>69</v>
+      </c>
+      <c r="F619">
+        <v>5</v>
+      </c>
+      <c r="G619">
+        <v>5</v>
+      </c>
+      <c r="H619">
+        <v>2</v>
+      </c>
+      <c r="I619">
+        <v>2</v>
+      </c>
+      <c r="J619" t="s">
+        <v>615</v>
+      </c>
+      <c r="K619" t="s">
+        <v>55</v>
+      </c>
+      <c r="L619" t="s">
+        <v>84</v>
+      </c>
+      <c r="M619" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N619" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O619" s="4">
+        <v>1</v>
+      </c>
+      <c r="P619" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q619" t="s">
+        <v>67</v>
+      </c>
+      <c r="R619" t="s">
+        <v>88</v>
+      </c>
+      <c r="S619" t="s">
+        <v>645</v>
+      </c>
+      <c r="T619" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="620" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A620" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B620" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C620" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D620" t="s">
+        <v>647</v>
+      </c>
+      <c r="E620" t="s">
+        <v>69</v>
+      </c>
+      <c r="F620">
+        <v>2</v>
+      </c>
+      <c r="G620">
+        <v>2</v>
+      </c>
+      <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620">
+        <v>1</v>
+      </c>
+      <c r="J620" t="s">
+        <v>615</v>
+      </c>
+      <c r="K620" t="s">
+        <v>55</v>
+      </c>
+      <c r="L620" t="s">
+        <v>84</v>
+      </c>
+      <c r="M620" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N620" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O620" s="4">
+        <v>1</v>
+      </c>
+      <c r="P620" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q620" t="s">
+        <v>67</v>
+      </c>
+      <c r="R620" t="s">
+        <v>88</v>
+      </c>
+      <c r="S620" t="s">
+        <v>645</v>
+      </c>
+      <c r="T620" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="621" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A621" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="B621" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C621" s="5">
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="D621" t="s">
+        <v>633</v>
+      </c>
+      <c r="E621" t="s">
+        <v>612</v>
+      </c>
+      <c r="F621">
+        <v>1</v>
+      </c>
+      <c r="G621">
+        <v>1</v>
+      </c>
+      <c r="H621">
+        <v>1</v>
+      </c>
+      <c r="I621">
+        <v>1</v>
+      </c>
+      <c r="J621" t="s">
+        <v>615</v>
+      </c>
+      <c r="K621" t="s">
+        <v>55</v>
+      </c>
+      <c r="L621" t="s">
+        <v>84</v>
+      </c>
+      <c r="M621" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N621" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O621" s="4">
+        <v>1</v>
+      </c>
+      <c r="P621" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q621" t="s">
+        <v>67</v>
+      </c>
+      <c r="R621" t="s">
+        <v>88</v>
+      </c>
+      <c r="S621" t="s">
+        <v>645</v>
+      </c>
+      <c r="T621" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="622" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A622" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B622" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C622" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D622" t="s">
+        <v>79</v>
+      </c>
+      <c r="E622" t="s">
+        <v>53</v>
+      </c>
+      <c r="F622">
+        <v>50</v>
+      </c>
+      <c r="G622">
+        <v>45</v>
+      </c>
+      <c r="H622">
+        <v>9</v>
+      </c>
+      <c r="I622">
+        <v>8.1</v>
+      </c>
+      <c r="J622" t="s">
+        <v>174</v>
+      </c>
+      <c r="K622" t="s">
+        <v>55</v>
+      </c>
+      <c r="L622" t="s">
+        <v>84</v>
+      </c>
+      <c r="M622" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N622" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O622" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P622" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q622" t="s">
+        <v>67</v>
+      </c>
+      <c r="R622" t="s">
+        <v>88</v>
+      </c>
+      <c r="S622" t="s">
+        <v>648</v>
+      </c>
+      <c r="T622" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="623" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A623" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B623" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C623" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D623" t="s">
+        <v>42</v>
+      </c>
+      <c r="E623" t="s">
+        <v>71</v>
+      </c>
+      <c r="F623">
+        <v>25</v>
+      </c>
+      <c r="G623">
+        <v>22.5</v>
+      </c>
+      <c r="H623">
+        <v>2</v>
+      </c>
+      <c r="I623">
+        <v>1.8</v>
+      </c>
+      <c r="J623" t="s">
+        <v>174</v>
+      </c>
+      <c r="K623" t="s">
+        <v>55</v>
+      </c>
+      <c r="L623" t="s">
+        <v>84</v>
+      </c>
+      <c r="M623" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N623" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O623" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P623" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q623" t="s">
+        <v>67</v>
+      </c>
+      <c r="R623" t="s">
+        <v>88</v>
+      </c>
+      <c r="S623" t="s">
+        <v>648</v>
+      </c>
+      <c r="T623" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="624" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A624" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B624" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C624" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D624" t="s">
+        <v>470</v>
+      </c>
+      <c r="E624" t="s">
+        <v>53</v>
+      </c>
+      <c r="F624">
+        <v>16</v>
+      </c>
+      <c r="G624">
+        <v>14.4</v>
+      </c>
+      <c r="H624">
+        <v>2</v>
+      </c>
+      <c r="I624">
+        <v>1.8</v>
+      </c>
+      <c r="J624" t="s">
+        <v>174</v>
+      </c>
+      <c r="K624" t="s">
+        <v>55</v>
+      </c>
+      <c r="L624" t="s">
+        <v>84</v>
+      </c>
+      <c r="M624" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N624" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O624" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P624" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q624" t="s">
+        <v>67</v>
+      </c>
+      <c r="R624" t="s">
+        <v>88</v>
+      </c>
+      <c r="S624" t="s">
+        <v>648</v>
+      </c>
+      <c r="T624" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="625" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A625" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B625" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C625" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D625" t="s">
+        <v>623</v>
+      </c>
+      <c r="E625" t="s">
+        <v>51</v>
+      </c>
+      <c r="F625">
+        <v>10</v>
+      </c>
+      <c r="G625">
+        <v>9</v>
+      </c>
+      <c r="H625">
+        <v>10</v>
+      </c>
+      <c r="I625">
+        <v>9</v>
+      </c>
+      <c r="J625" t="s">
+        <v>174</v>
+      </c>
+      <c r="K625" t="s">
+        <v>55</v>
+      </c>
+      <c r="L625" t="s">
+        <v>84</v>
+      </c>
+      <c r="M625" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N625" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O625" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P625" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q625" t="s">
+        <v>67</v>
+      </c>
+      <c r="R625" t="s">
+        <v>88</v>
+      </c>
+      <c r="S625" t="s">
+        <v>648</v>
+      </c>
+      <c r="T625" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="626" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A626" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B626" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C626" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D626" t="s">
+        <v>627</v>
+      </c>
+      <c r="E626" t="s">
+        <v>81</v>
+      </c>
+      <c r="F626">
+        <v>5</v>
+      </c>
+      <c r="G626">
+        <v>4.5</v>
+      </c>
+      <c r="H626">
+        <v>3</v>
+      </c>
+      <c r="I626">
+        <v>2.7</v>
+      </c>
+      <c r="J626" t="s">
+        <v>174</v>
+      </c>
+      <c r="K626" t="s">
+        <v>55</v>
+      </c>
+      <c r="L626" t="s">
+        <v>84</v>
+      </c>
+      <c r="M626" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N626" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O626" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P626" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q626" t="s">
+        <v>67</v>
+      </c>
+      <c r="R626" t="s">
+        <v>88</v>
+      </c>
+      <c r="S626" t="s">
+        <v>648</v>
+      </c>
+      <c r="T626" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="627" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A627" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B627" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C627" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D627" t="s">
+        <v>18</v>
+      </c>
+      <c r="E627" t="s">
+        <v>247</v>
+      </c>
+      <c r="F627">
+        <v>3</v>
+      </c>
+      <c r="G627">
+        <v>2.7</v>
+      </c>
+      <c r="H627">
+        <v>2</v>
+      </c>
+      <c r="I627">
+        <v>1.8</v>
+      </c>
+      <c r="J627" t="s">
+        <v>174</v>
+      </c>
+      <c r="K627" t="s">
+        <v>55</v>
+      </c>
+      <c r="L627" t="s">
+        <v>84</v>
+      </c>
+      <c r="M627" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N627" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O627" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P627" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q627" t="s">
+        <v>67</v>
+      </c>
+      <c r="R627" t="s">
+        <v>88</v>
+      </c>
+      <c r="S627" t="s">
+        <v>648</v>
+      </c>
+      <c r="T627" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="628" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A628" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B628" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C628" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D628" t="s">
+        <v>40</v>
+      </c>
+      <c r="E628" t="s">
+        <v>53</v>
+      </c>
+      <c r="F628">
+        <v>1</v>
+      </c>
+      <c r="G628">
+        <v>0.9</v>
+      </c>
+      <c r="H628">
+        <v>1</v>
+      </c>
+      <c r="I628">
+        <v>0.9</v>
+      </c>
+      <c r="J628" t="s">
+        <v>174</v>
+      </c>
+      <c r="K628" t="s">
+        <v>55</v>
+      </c>
+      <c r="L628" t="s">
+        <v>84</v>
+      </c>
+      <c r="M628" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N628" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O628" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P628" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q628" t="s">
+        <v>67</v>
+      </c>
+      <c r="R628" t="s">
+        <v>88</v>
+      </c>
+      <c r="S628" t="s">
+        <v>648</v>
+      </c>
+      <c r="T628" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="629" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A629" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B629" s="5">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C629" s="5">
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D629" t="s">
+        <v>649</v>
+      </c>
+      <c r="E629" t="s">
+        <v>247</v>
+      </c>
+      <c r="F629">
+        <v>1</v>
+      </c>
+      <c r="G629">
+        <v>0.9</v>
+      </c>
+      <c r="H629">
+        <v>1</v>
+      </c>
+      <c r="I629">
+        <v>0.9</v>
+      </c>
+      <c r="J629" t="s">
+        <v>174</v>
+      </c>
+      <c r="K629" t="s">
+        <v>55</v>
+      </c>
+      <c r="L629" t="s">
+        <v>84</v>
+      </c>
+      <c r="M629" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N629" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O629" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P629" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q629" t="s">
+        <v>67</v>
+      </c>
+      <c r="R629" t="s">
+        <v>88</v>
+      </c>
+      <c r="S629" t="s">
+        <v>648</v>
+      </c>
+      <c r="T629" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="630" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A630" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B630" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C630" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D630" t="s">
+        <v>12</v>
+      </c>
+      <c r="E630" t="s">
+        <v>53</v>
+      </c>
+      <c r="F630">
+        <v>70</v>
+      </c>
+      <c r="G630">
+        <v>63</v>
+      </c>
+      <c r="H630">
+        <v>30</v>
+      </c>
+      <c r="I630">
+        <v>27</v>
+      </c>
+      <c r="J630" t="s">
+        <v>225</v>
+      </c>
+      <c r="K630" t="s">
+        <v>55</v>
+      </c>
+      <c r="L630" t="s">
+        <v>84</v>
+      </c>
+      <c r="M630" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N630" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O630" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P630" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q630" t="s">
+        <v>67</v>
+      </c>
+      <c r="R630" t="s">
+        <v>88</v>
+      </c>
+      <c r="S630" t="s">
+        <v>650</v>
+      </c>
+      <c r="T630" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="631" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A631" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B631" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C631" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D631" t="s">
+        <v>20</v>
+      </c>
+      <c r="E631" t="s">
+        <v>51</v>
+      </c>
+      <c r="F631">
+        <v>28</v>
+      </c>
+      <c r="G631">
+        <v>25.2</v>
+      </c>
+      <c r="H631">
+        <v>1</v>
+      </c>
+      <c r="I631">
+        <v>0.9</v>
+      </c>
+      <c r="J631" t="s">
+        <v>225</v>
+      </c>
+      <c r="K631" t="s">
+        <v>55</v>
+      </c>
+      <c r="L631" t="s">
+        <v>84</v>
+      </c>
+      <c r="M631" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N631" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O631" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P631" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q631" t="s">
+        <v>67</v>
+      </c>
+      <c r="R631" t="s">
+        <v>88</v>
+      </c>
+      <c r="S631" t="s">
+        <v>650</v>
+      </c>
+      <c r="T631" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="632" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A632" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B632" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C632" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D632" t="s">
+        <v>620</v>
+      </c>
+      <c r="E632" t="s">
+        <v>81</v>
+      </c>
+      <c r="F632">
+        <v>20</v>
+      </c>
+      <c r="G632">
+        <v>18</v>
+      </c>
+      <c r="H632">
+        <v>2</v>
+      </c>
+      <c r="I632">
+        <v>1.8</v>
+      </c>
+      <c r="J632" t="s">
+        <v>225</v>
+      </c>
+      <c r="K632" t="s">
+        <v>55</v>
+      </c>
+      <c r="L632" t="s">
+        <v>84</v>
+      </c>
+      <c r="M632" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N632" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O632" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P632" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q632" t="s">
+        <v>67</v>
+      </c>
+      <c r="R632" t="s">
+        <v>88</v>
+      </c>
+      <c r="S632" t="s">
+        <v>650</v>
+      </c>
+      <c r="T632" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="633" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A633" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B633" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C633" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D633" t="s">
+        <v>643</v>
+      </c>
+      <c r="E633" t="s">
+        <v>168</v>
+      </c>
+      <c r="F633">
+        <v>12</v>
+      </c>
+      <c r="G633">
+        <v>10.8</v>
+      </c>
+      <c r="H633">
+        <v>1</v>
+      </c>
+      <c r="I633">
+        <v>0.9</v>
+      </c>
+      <c r="J633" t="s">
+        <v>225</v>
+      </c>
+      <c r="K633" t="s">
+        <v>55</v>
+      </c>
+      <c r="L633" t="s">
+        <v>84</v>
+      </c>
+      <c r="M633" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N633" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O633" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P633" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q633" t="s">
+        <v>67</v>
+      </c>
+      <c r="R633" t="s">
+        <v>88</v>
+      </c>
+      <c r="S633" t="s">
+        <v>650</v>
+      </c>
+      <c r="T633" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="634" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A634" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B634" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C634" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D634" t="s">
+        <v>651</v>
+      </c>
+      <c r="E634" t="s">
+        <v>44</v>
+      </c>
+      <c r="F634">
+        <v>8</v>
+      </c>
+      <c r="G634">
+        <v>7.2</v>
+      </c>
+      <c r="H634">
+        <v>2</v>
+      </c>
+      <c r="I634">
+        <v>1.8</v>
+      </c>
+      <c r="J634" t="s">
+        <v>225</v>
+      </c>
+      <c r="K634" t="s">
+        <v>55</v>
+      </c>
+      <c r="L634" t="s">
+        <v>84</v>
+      </c>
+      <c r="M634" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N634" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O634" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P634" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q634" t="s">
+        <v>67</v>
+      </c>
+      <c r="R634" t="s">
+        <v>88</v>
+      </c>
+      <c r="S634" t="s">
+        <v>650</v>
+      </c>
+      <c r="T634" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="635" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A635" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B635" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C635" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D635" t="s">
+        <v>625</v>
+      </c>
+      <c r="E635" t="s">
+        <v>81</v>
+      </c>
+      <c r="F635">
+        <v>3</v>
+      </c>
+      <c r="G635">
+        <v>2.7</v>
+      </c>
+      <c r="H635">
+        <v>3</v>
+      </c>
+      <c r="I635">
+        <v>2.7</v>
+      </c>
+      <c r="J635" t="s">
+        <v>225</v>
+      </c>
+      <c r="K635" t="s">
+        <v>55</v>
+      </c>
+      <c r="L635" t="s">
+        <v>84</v>
+      </c>
+      <c r="M635" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N635" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O635" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P635" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q635" t="s">
+        <v>67</v>
+      </c>
+      <c r="R635" t="s">
+        <v>88</v>
+      </c>
+      <c r="S635" t="s">
+        <v>650</v>
+      </c>
+      <c r="T635" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="636" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A636" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B636" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C636" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D636" t="s">
+        <v>652</v>
+      </c>
+      <c r="E636" t="s">
+        <v>53</v>
+      </c>
+      <c r="F636">
+        <v>2</v>
+      </c>
+      <c r="G636">
+        <v>1.8</v>
+      </c>
+      <c r="H636">
+        <v>1</v>
+      </c>
+      <c r="I636">
+        <v>0.9</v>
+      </c>
+      <c r="J636" t="s">
+        <v>225</v>
+      </c>
+      <c r="K636" t="s">
+        <v>55</v>
+      </c>
+      <c r="L636" t="s">
+        <v>84</v>
+      </c>
+      <c r="M636" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N636" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O636" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P636" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q636" t="s">
+        <v>67</v>
+      </c>
+      <c r="R636" t="s">
+        <v>88</v>
+      </c>
+      <c r="S636" t="s">
+        <v>650</v>
+      </c>
+      <c r="T636" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="637" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A637" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="B637" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C637" s="5">
+        <v>0.28611111111111104</v>
+      </c>
+      <c r="D637" t="s">
+        <v>653</v>
+      </c>
+      <c r="E637" t="s">
+        <v>247</v>
+      </c>
+      <c r="F637">
+        <v>1</v>
+      </c>
+      <c r="G637">
+        <v>0.9</v>
+      </c>
+      <c r="H637">
+        <v>1</v>
+      </c>
+      <c r="I637">
+        <v>0.9</v>
+      </c>
+      <c r="J637" t="s">
+        <v>225</v>
+      </c>
+      <c r="K637" t="s">
+        <v>55</v>
+      </c>
+      <c r="L637" t="s">
+        <v>84</v>
+      </c>
+      <c r="M637" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N637" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O637" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P637" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q637" t="s">
+        <v>67</v>
+      </c>
+      <c r="R637" t="s">
+        <v>88</v>
+      </c>
+      <c r="S637" t="s">
+        <v>650</v>
+      </c>
+      <c r="T637" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="638" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A638" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B638" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C638" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D638" t="s">
+        <v>70</v>
+      </c>
+      <c r="E638" t="s">
+        <v>69</v>
+      </c>
+      <c r="F638">
+        <v>47</v>
+      </c>
+      <c r="G638">
+        <v>32.9</v>
+      </c>
+      <c r="H638">
+        <v>2</v>
+      </c>
+      <c r="I638">
+        <v>1.4</v>
+      </c>
+      <c r="J638" t="s">
+        <v>613</v>
+      </c>
+      <c r="K638" t="s">
+        <v>55</v>
+      </c>
+      <c r="L638" t="s">
+        <v>84</v>
+      </c>
+      <c r="M638" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N638" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O638" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P638" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q638" t="s">
+        <v>67</v>
+      </c>
+      <c r="R638" t="s">
+        <v>88</v>
+      </c>
+      <c r="S638" t="s">
+        <v>654</v>
+      </c>
+      <c r="T638" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="639" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A639" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B639" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C639" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D639" t="s">
+        <v>473</v>
+      </c>
+      <c r="E639" t="s">
+        <v>81</v>
+      </c>
+      <c r="F639">
+        <v>24</v>
+      </c>
+      <c r="G639">
+        <v>16.799999999999997</v>
+      </c>
+      <c r="H639">
+        <v>1</v>
+      </c>
+      <c r="I639">
+        <v>0.7</v>
+      </c>
+      <c r="J639" t="s">
+        <v>613</v>
+      </c>
+      <c r="K639" t="s">
+        <v>55</v>
+      </c>
+      <c r="L639" t="s">
+        <v>84</v>
+      </c>
+      <c r="M639" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N639" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O639" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P639" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q639" t="s">
+        <v>67</v>
+      </c>
+      <c r="R639" t="s">
+        <v>88</v>
+      </c>
+      <c r="S639" t="s">
+        <v>654</v>
+      </c>
+      <c r="T639" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="640" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A640" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B640" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C640" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D640" t="s">
+        <v>655</v>
+      </c>
+      <c r="E640" t="s">
+        <v>53</v>
+      </c>
+      <c r="F640">
+        <v>15</v>
+      </c>
+      <c r="G640">
+        <v>10.5</v>
+      </c>
+      <c r="H640">
+        <v>1</v>
+      </c>
+      <c r="I640">
+        <v>0.7</v>
+      </c>
+      <c r="J640" t="s">
+        <v>613</v>
+      </c>
+      <c r="K640" t="s">
+        <v>55</v>
+      </c>
+      <c r="L640" t="s">
+        <v>84</v>
+      </c>
+      <c r="M640" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N640" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O640" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P640" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q640" t="s">
+        <v>67</v>
+      </c>
+      <c r="R640" t="s">
+        <v>88</v>
+      </c>
+      <c r="S640" t="s">
+        <v>654</v>
+      </c>
+      <c r="T640" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="641" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A641" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B641" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C641" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D641" t="s">
+        <v>26</v>
+      </c>
+      <c r="E641" t="s">
+        <v>612</v>
+      </c>
+      <c r="F641">
+        <v>10</v>
+      </c>
+      <c r="G641">
+        <v>7</v>
+      </c>
+      <c r="H641">
+        <v>1</v>
+      </c>
+      <c r="I641">
+        <v>0.7</v>
+      </c>
+      <c r="J641" t="s">
+        <v>613</v>
+      </c>
+      <c r="K641" t="s">
+        <v>55</v>
+      </c>
+      <c r="L641" t="s">
+        <v>84</v>
+      </c>
+      <c r="M641" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N641" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O641" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P641" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q641" t="s">
+        <v>67</v>
+      </c>
+      <c r="R641" t="s">
+        <v>88</v>
+      </c>
+      <c r="S641" t="s">
+        <v>654</v>
+      </c>
+      <c r="T641" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="642" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A642" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B642" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C642" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D642" t="s">
+        <v>656</v>
+      </c>
+      <c r="E642" t="s">
+        <v>69</v>
+      </c>
+      <c r="F642">
+        <v>5</v>
+      </c>
+      <c r="G642">
+        <v>3.5</v>
+      </c>
+      <c r="H642">
+        <v>5</v>
+      </c>
+      <c r="I642">
+        <v>3.5</v>
+      </c>
+      <c r="J642" t="s">
+        <v>613</v>
+      </c>
+      <c r="K642" t="s">
+        <v>55</v>
+      </c>
+      <c r="L642" t="s">
+        <v>84</v>
+      </c>
+      <c r="M642" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N642" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O642" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P642" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q642" t="s">
+        <v>67</v>
+      </c>
+      <c r="R642" t="s">
+        <v>88</v>
+      </c>
+      <c r="S642" t="s">
+        <v>654</v>
+      </c>
+      <c r="T642" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="643" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A643" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B643" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C643" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D643" t="s">
+        <v>19</v>
+      </c>
+      <c r="E643" t="s">
+        <v>71</v>
+      </c>
+      <c r="F643">
+        <v>2</v>
+      </c>
+      <c r="G643">
+        <v>1.4</v>
+      </c>
+      <c r="H643">
+        <v>2</v>
+      </c>
+      <c r="I643">
+        <v>1.4</v>
+      </c>
+      <c r="J643" t="s">
+        <v>613</v>
+      </c>
+      <c r="K643" t="s">
+        <v>55</v>
+      </c>
+      <c r="L643" t="s">
+        <v>84</v>
+      </c>
+      <c r="M643" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N643" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O643" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P643" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q643" t="s">
+        <v>67</v>
+      </c>
+      <c r="R643" t="s">
+        <v>88</v>
+      </c>
+      <c r="S643" t="s">
+        <v>654</v>
+      </c>
+      <c r="T643" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="644" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A644" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B644" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C644" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D644" t="s">
+        <v>636</v>
+      </c>
+      <c r="E644" t="s">
+        <v>71</v>
+      </c>
+      <c r="F644">
+        <v>1</v>
+      </c>
+      <c r="G644">
+        <v>0.7</v>
+      </c>
+      <c r="H644">
+        <v>1</v>
+      </c>
+      <c r="I644">
+        <v>0.7</v>
+      </c>
+      <c r="J644" t="s">
+        <v>613</v>
+      </c>
+      <c r="K644" t="s">
+        <v>55</v>
+      </c>
+      <c r="L644" t="s">
+        <v>84</v>
+      </c>
+      <c r="M644" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N644" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O644" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P644" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q644" t="s">
+        <v>67</v>
+      </c>
+      <c r="R644" t="s">
+        <v>88</v>
+      </c>
+      <c r="S644" t="s">
+        <v>654</v>
+      </c>
+      <c r="T644" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="645" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A645" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B645" s="5">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C645" s="5">
+        <v>0.22986111111111113</v>
+      </c>
+      <c r="D645" t="s">
+        <v>657</v>
+      </c>
+      <c r="E645" t="s">
+        <v>247</v>
+      </c>
+      <c r="F645">
+        <v>1</v>
+      </c>
+      <c r="G645">
+        <v>0.7</v>
+      </c>
+      <c r="H645">
+        <v>1</v>
+      </c>
+      <c r="I645">
+        <v>0.7</v>
+      </c>
+      <c r="J645" t="s">
+        <v>613</v>
+      </c>
+      <c r="K645" t="s">
+        <v>55</v>
+      </c>
+      <c r="L645" t="s">
+        <v>84</v>
+      </c>
+      <c r="M645" s="3">
+        <v>45727</v>
+      </c>
+      <c r="N645" s="3">
+        <v>45727</v>
+      </c>
+      <c r="O645" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P645" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q645" t="s">
+        <v>67</v>
+      </c>
+      <c r="R645" t="s">
+        <v>88</v>
+      </c>
+      <c r="S645" t="s">
+        <v>654</v>
+      </c>
+      <c r="T645" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T592" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Regina Ibarra"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T592" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005725F3247F336418FD0B6982E885FE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0671357150d9826c132cbbe52a039adf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dff58c59-0826-40b3-818c-217a342b7c32" xmlns:ns3="8d12b38e-cd84-4dc9-9e23-0584e838c5c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fb90c90cf4acc00e22d7a7eeb7139e" ns2:_="" ns3:_="">
     <xsd:import namespace="dff58c59-0826-40b3-818c-217a342b7c32"/>
@@ -39554,6 +42883,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -39574,14 +42912,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5239AD7F-1464-41CB-8753-741CBA1FE41D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A4093C-E733-42F2-8FB0-D4E9523AD248}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39596,6 +42926,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5239AD7F-1464-41CB-8753-741CBA1FE41D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dashboard_Lista de tareas 2025.xlsx
+++ b/Dashboard_Lista de tareas 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warehousing.sharepoint.com/sites/Operaciones/Documentos compartidos/001 CONTROL STOCK/Herramientas de control stock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28C2EC7-6DF1-47BF-96F8-92202614CA2D}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{0AEB0AF2-B8E8-4030-B18B-42F311F97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8458C37B-7F89-41A0-B68F-7B6224E20270}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="598" xr2:uid="{CB3C9A90-1F93-464E-864E-5F940A5938F4}"/>
   </bookViews>
@@ -2021,12 +2021,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2158,13 +2157,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="2" xr:uid="{96AA2D41-F00C-45D4-BB6D-C315216FF078}"/>
@@ -2644,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977689BD-1453-49B3-B790-B97BC2D7C5DC}">
   <dimension ref="A1:T645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="M593" sqref="M593:N645"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="B615" sqref="B615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38680,7 +38678,7 @@
       <c r="B582" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C582" s="5">
+      <c r="C582" s="2">
         <v>0.125</v>
       </c>
       <c r="D582" t="s">
@@ -38742,7 +38740,7 @@
       <c r="B583" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C583" s="5">
+      <c r="C583" s="2">
         <v>0.125</v>
       </c>
       <c r="D583" t="s">
@@ -38804,7 +38802,7 @@
       <c r="B584" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C584" s="5">
+      <c r="C584" s="2">
         <v>0.125</v>
       </c>
       <c r="D584" t="s">
@@ -38866,7 +38864,7 @@
       <c r="B585" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C585" s="5">
+      <c r="C585" s="2">
         <v>0.125</v>
       </c>
       <c r="D585" t="s">
@@ -38928,7 +38926,7 @@
       <c r="B586" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C586" s="5">
+      <c r="C586" s="2">
         <v>0.125</v>
       </c>
       <c r="D586" t="s">
@@ -38990,7 +38988,7 @@
       <c r="B587" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C587" s="5">
+      <c r="C587" s="2">
         <v>0.125</v>
       </c>
       <c r="D587" t="s">
@@ -39052,7 +39050,7 @@
       <c r="B588" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C588" s="5">
+      <c r="C588" s="2">
         <v>0.125</v>
       </c>
       <c r="D588" t="s">
@@ -39114,7 +39112,7 @@
       <c r="B589" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C589" s="5">
+      <c r="C589" s="2">
         <v>0.125</v>
       </c>
       <c r="D589" t="s">
@@ -39176,7 +39174,7 @@
       <c r="B590" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C590" s="5">
+      <c r="C590" s="2">
         <v>0.125</v>
       </c>
       <c r="D590" t="s">
@@ -39238,7 +39236,7 @@
       <c r="B591" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C591" s="5">
+      <c r="C591" s="2">
         <v>0.125</v>
       </c>
       <c r="D591" t="s">
@@ -39300,7 +39298,7 @@
       <c r="B592" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C592" s="5">
+      <c r="C592" s="2">
         <v>0.125</v>
       </c>
       <c r="D592" t="s">
@@ -39356,13 +39354,13 @@
       </c>
     </row>
     <row r="593" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A593" s="5">
+      <c r="A593" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B593" s="5">
+      <c r="B593" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C593" s="5">
+      <c r="C593" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D593" t="s">
@@ -39418,13 +39416,13 @@
       </c>
     </row>
     <row r="594" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A594" s="5">
+      <c r="A594" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B594" s="5">
+      <c r="B594" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C594" s="5">
+      <c r="C594" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D594" t="s">
@@ -39480,13 +39478,13 @@
       </c>
     </row>
     <row r="595" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A595" s="5">
+      <c r="A595" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B595" s="5">
+      <c r="B595" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C595" s="5">
+      <c r="C595" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D595" t="s">
@@ -39542,13 +39540,13 @@
       </c>
     </row>
     <row r="596" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A596" s="5">
+      <c r="A596" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B596" s="5">
+      <c r="B596" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C596" s="5">
+      <c r="C596" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D596" t="s">
@@ -39604,13 +39602,13 @@
       </c>
     </row>
     <row r="597" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A597" s="5">
+      <c r="A597" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B597" s="5">
+      <c r="B597" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C597" s="5">
+      <c r="C597" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D597" t="s">
@@ -39666,13 +39664,13 @@
       </c>
     </row>
     <row r="598" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A598" s="5">
+      <c r="A598" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B598" s="5">
+      <c r="B598" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C598" s="5">
+      <c r="C598" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D598" t="s">
@@ -39728,13 +39726,13 @@
       </c>
     </row>
     <row r="599" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A599" s="5">
+      <c r="A599" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B599" s="5">
+      <c r="B599" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C599" s="5">
+      <c r="C599" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D599" t="s">
@@ -39790,13 +39788,13 @@
       </c>
     </row>
     <row r="600" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A600" s="5">
+      <c r="A600" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B600" s="5">
+      <c r="B600" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C600" s="5">
+      <c r="C600" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D600" t="s">
@@ -39852,13 +39850,13 @@
       </c>
     </row>
     <row r="601" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A601" s="5">
+      <c r="A601" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B601" s="5">
+      <c r="B601" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C601" s="5">
+      <c r="C601" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D601" t="s">
@@ -39914,13 +39912,13 @@
       </c>
     </row>
     <row r="602" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A602" s="5">
+      <c r="A602" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B602" s="5">
+      <c r="B602" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C602" s="5">
+      <c r="C602" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D602" t="s">
@@ -39976,13 +39974,13 @@
       </c>
     </row>
     <row r="603" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A603" s="5">
+      <c r="A603" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B603" s="5">
+      <c r="B603" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C603" s="5">
+      <c r="C603" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D603" t="s">
@@ -40038,13 +40036,13 @@
       </c>
     </row>
     <row r="604" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A604" s="5">
+      <c r="A604" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B604" s="5">
+      <c r="B604" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C604" s="5">
+      <c r="C604" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D604" t="s">
@@ -40100,13 +40098,13 @@
       </c>
     </row>
     <row r="605" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A605" s="5">
+      <c r="A605" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B605" s="5">
+      <c r="B605" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C605" s="5">
+      <c r="C605" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D605" t="s">
@@ -40162,13 +40160,13 @@
       </c>
     </row>
     <row r="606" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A606" s="5">
+      <c r="A606" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B606" s="5">
+      <c r="B606" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C606" s="5">
+      <c r="C606" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D606" t="s">
@@ -40224,13 +40222,13 @@
       </c>
     </row>
     <row r="607" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A607" s="5">
+      <c r="A607" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B607" s="5">
+      <c r="B607" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C607" s="5">
+      <c r="C607" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D607" t="s">
@@ -40286,13 +40284,13 @@
       </c>
     </row>
     <row r="608" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A608" s="5">
+      <c r="A608" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B608" s="5">
+      <c r="B608" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C608" s="5">
+      <c r="C608" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D608" t="s">
@@ -40348,13 +40346,13 @@
       </c>
     </row>
     <row r="609" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A609" s="5">
+      <c r="A609" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B609" s="5">
+      <c r="B609" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C609" s="5">
+      <c r="C609" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D609" t="s">
@@ -40410,13 +40408,13 @@
       </c>
     </row>
     <row r="610" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A610" s="5">
+      <c r="A610" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B610" s="5">
+      <c r="B610" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C610" s="5">
+      <c r="C610" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D610" t="s">
@@ -40472,13 +40470,13 @@
       </c>
     </row>
     <row r="611" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A611" s="5">
+      <c r="A611" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B611" s="5">
+      <c r="B611" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C611" s="5">
+      <c r="C611" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D611" t="s">
@@ -40534,13 +40532,13 @@
       </c>
     </row>
     <row r="612" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A612" s="5">
+      <c r="A612" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B612" s="5">
+      <c r="B612" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C612" s="5">
+      <c r="C612" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D612" t="s">
@@ -40596,13 +40594,13 @@
       </c>
     </row>
     <row r="613" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A613" s="5">
+      <c r="A613" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B613" s="5">
+      <c r="B613" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C613" s="5">
+      <c r="C613" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D613" t="s">
@@ -40658,13 +40656,13 @@
       </c>
     </row>
     <row r="614" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A614" s="5">
+      <c r="A614" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B614" s="5">
+      <c r="B614" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C614" s="5">
+      <c r="C614" s="2">
         <v>0.28125000000000006</v>
       </c>
       <c r="D614" t="s">
@@ -40720,13 +40718,13 @@
       </c>
     </row>
     <row r="615" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A615" s="5">
+      <c r="A615" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B615" s="5">
+      <c r="B615" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C615" s="5">
+      <c r="C615" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D615" t="s">
@@ -40757,10 +40755,10 @@
         <v>84</v>
       </c>
       <c r="M615" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N615" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O615" s="4">
         <v>1</v>
@@ -40782,13 +40780,13 @@
       </c>
     </row>
     <row r="616" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A616" s="5">
+      <c r="A616" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B616" s="5">
+      <c r="B616" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C616" s="5">
+      <c r="C616" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D616" t="s">
@@ -40819,10 +40817,10 @@
         <v>84</v>
       </c>
       <c r="M616" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N616" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O616" s="4">
         <v>1</v>
@@ -40844,13 +40842,13 @@
       </c>
     </row>
     <row r="617" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A617" s="5">
+      <c r="A617" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B617" s="5">
+      <c r="B617" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C617" s="5">
+      <c r="C617" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D617" t="s">
@@ -40881,10 +40879,10 @@
         <v>84</v>
       </c>
       <c r="M617" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N617" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O617" s="4">
         <v>1</v>
@@ -40906,13 +40904,13 @@
       </c>
     </row>
     <row r="618" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A618" s="5">
+      <c r="A618" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B618" s="5">
+      <c r="B618" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C618" s="5">
+      <c r="C618" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D618" t="s">
@@ -40943,10 +40941,10 @@
         <v>84</v>
       </c>
       <c r="M618" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N618" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O618" s="4">
         <v>1</v>
@@ -40968,13 +40966,13 @@
       </c>
     </row>
     <row r="619" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A619" s="5">
+      <c r="A619" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B619" s="5">
+      <c r="B619" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C619" s="5">
+      <c r="C619" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D619" t="s">
@@ -41005,10 +41003,10 @@
         <v>84</v>
       </c>
       <c r="M619" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N619" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O619" s="4">
         <v>1</v>
@@ -41030,13 +41028,13 @@
       </c>
     </row>
     <row r="620" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A620" s="5">
+      <c r="A620" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B620" s="5">
+      <c r="B620" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C620" s="5">
+      <c r="C620" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D620" t="s">
@@ -41067,10 +41065,10 @@
         <v>84</v>
       </c>
       <c r="M620" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N620" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O620" s="4">
         <v>1</v>
@@ -41092,13 +41090,13 @@
       </c>
     </row>
     <row r="621" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A621" s="5">
+      <c r="A621" s="2">
         <v>0.40763888888888888</v>
       </c>
-      <c r="B621" s="5">
+      <c r="B621" s="2">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C621" s="5">
+      <c r="C621" s="2">
         <v>0.10624999999999996</v>
       </c>
       <c r="D621" t="s">
@@ -41129,10 +41127,10 @@
         <v>84</v>
       </c>
       <c r="M621" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N621" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O621" s="4">
         <v>1</v>
@@ -41154,13 +41152,13 @@
       </c>
     </row>
     <row r="622" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A622" s="5">
+      <c r="A622" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B622" s="5">
+      <c r="B622" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C622" s="5">
+      <c r="C622" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D622" t="s">
@@ -41191,10 +41189,10 @@
         <v>84</v>
       </c>
       <c r="M622" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N622" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O622" s="4">
         <v>0.9</v>
@@ -41216,13 +41214,13 @@
       </c>
     </row>
     <row r="623" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A623" s="5">
+      <c r="A623" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B623" s="5">
+      <c r="B623" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C623" s="5">
+      <c r="C623" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D623" t="s">
@@ -41253,10 +41251,10 @@
         <v>84</v>
       </c>
       <c r="M623" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N623" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O623" s="4">
         <v>0.9</v>
@@ -41278,13 +41276,13 @@
       </c>
     </row>
     <row r="624" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A624" s="5">
+      <c r="A624" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B624" s="5">
+      <c r="B624" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C624" s="5">
+      <c r="C624" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D624" t="s">
@@ -41315,10 +41313,10 @@
         <v>84</v>
       </c>
       <c r="M624" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N624" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O624" s="4">
         <v>0.9</v>
@@ -41340,13 +41338,13 @@
       </c>
     </row>
     <row r="625" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A625" s="5">
+      <c r="A625" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B625" s="5">
+      <c r="B625" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C625" s="5">
+      <c r="C625" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D625" t="s">
@@ -41377,10 +41375,10 @@
         <v>84</v>
       </c>
       <c r="M625" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N625" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O625" s="4">
         <v>0.9</v>
@@ -41402,13 +41400,13 @@
       </c>
     </row>
     <row r="626" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A626" s="5">
+      <c r="A626" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B626" s="5">
+      <c r="B626" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C626" s="5">
+      <c r="C626" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D626" t="s">
@@ -41439,10 +41437,10 @@
         <v>84</v>
       </c>
       <c r="M626" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N626" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O626" s="4">
         <v>0.9</v>
@@ -41464,13 +41462,13 @@
       </c>
     </row>
     <row r="627" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A627" s="5">
+      <c r="A627" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B627" s="5">
+      <c r="B627" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C627" s="5">
+      <c r="C627" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D627" t="s">
@@ -41501,10 +41499,10 @@
         <v>84</v>
       </c>
       <c r="M627" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N627" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O627" s="4">
         <v>0.9</v>
@@ -41526,13 +41524,13 @@
       </c>
     </row>
     <row r="628" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A628" s="5">
+      <c r="A628" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B628" s="5">
+      <c r="B628" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C628" s="5">
+      <c r="C628" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D628" t="s">
@@ -41563,10 +41561,10 @@
         <v>84</v>
       </c>
       <c r="M628" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N628" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O628" s="4">
         <v>0.9</v>
@@ -41588,13 +41586,13 @@
       </c>
     </row>
     <row r="629" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A629" s="5">
+      <c r="A629" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B629" s="5">
+      <c r="B629" s="2">
         <v>0.63888888888888884</v>
       </c>
-      <c r="C629" s="5">
+      <c r="C629" s="2">
         <v>0.22222222222222215</v>
       </c>
       <c r="D629" t="s">
@@ -41625,10 +41623,10 @@
         <v>84</v>
       </c>
       <c r="M629" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N629" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O629" s="4">
         <v>0.9</v>
@@ -41650,13 +41648,13 @@
       </c>
     </row>
     <row r="630" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A630" s="5">
+      <c r="A630" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B630" s="5">
+      <c r="B630" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C630" s="5">
+      <c r="C630" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D630" t="s">
@@ -41687,10 +41685,10 @@
         <v>84</v>
       </c>
       <c r="M630" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N630" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O630" s="4">
         <v>0.9</v>
@@ -41712,13 +41710,13 @@
       </c>
     </row>
     <row r="631" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A631" s="5">
+      <c r="A631" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B631" s="5">
+      <c r="B631" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C631" s="5">
+      <c r="C631" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D631" t="s">
@@ -41749,10 +41747,10 @@
         <v>84</v>
       </c>
       <c r="M631" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N631" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O631" s="4">
         <v>0.9</v>
@@ -41774,13 +41772,13 @@
       </c>
     </row>
     <row r="632" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A632" s="5">
+      <c r="A632" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B632" s="5">
+      <c r="B632" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C632" s="5">
+      <c r="C632" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D632" t="s">
@@ -41811,10 +41809,10 @@
         <v>84</v>
       </c>
       <c r="M632" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N632" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O632" s="4">
         <v>0.9</v>
@@ -41836,13 +41834,13 @@
       </c>
     </row>
     <row r="633" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A633" s="5">
+      <c r="A633" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B633" s="5">
+      <c r="B633" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C633" s="5">
+      <c r="C633" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D633" t="s">
@@ -41873,10 +41871,10 @@
         <v>84</v>
       </c>
       <c r="M633" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N633" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O633" s="4">
         <v>0.9</v>
@@ -41898,13 +41896,13 @@
       </c>
     </row>
     <row r="634" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A634" s="5">
+      <c r="A634" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B634" s="5">
+      <c r="B634" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C634" s="5">
+      <c r="C634" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D634" t="s">
@@ -41935,10 +41933,10 @@
         <v>84</v>
       </c>
       <c r="M634" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N634" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O634" s="4">
         <v>0.9</v>
@@ -41960,13 +41958,13 @@
       </c>
     </row>
     <row r="635" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A635" s="5">
+      <c r="A635" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B635" s="5">
+      <c r="B635" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C635" s="5">
+      <c r="C635" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D635" t="s">
@@ -41997,10 +41995,10 @@
         <v>84</v>
       </c>
       <c r="M635" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N635" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O635" s="4">
         <v>0.9</v>
@@ -42022,13 +42020,13 @@
       </c>
     </row>
     <row r="636" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A636" s="5">
+      <c r="A636" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B636" s="5">
+      <c r="B636" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C636" s="5">
+      <c r="C636" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D636" t="s">
@@ -42059,10 +42057,10 @@
         <v>84</v>
       </c>
       <c r="M636" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N636" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O636" s="4">
         <v>0.9</v>
@@ -42084,13 +42082,13 @@
       </c>
     </row>
     <row r="637" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A637" s="5">
+      <c r="A637" s="2">
         <v>0.41458333333333336</v>
       </c>
-      <c r="B637" s="5">
+      <c r="B637" s="2">
         <v>0.7006944444444444</v>
       </c>
-      <c r="C637" s="5">
+      <c r="C637" s="2">
         <v>0.28611111111111104</v>
       </c>
       <c r="D637" t="s">
@@ -42121,10 +42119,10 @@
         <v>84</v>
       </c>
       <c r="M637" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N637" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O637" s="4">
         <v>0.9</v>
@@ -42146,13 +42144,13 @@
       </c>
     </row>
     <row r="638" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A638" s="5">
+      <c r="A638" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B638" s="5">
+      <c r="B638" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C638" s="5">
+      <c r="C638" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D638" t="s">
@@ -42183,10 +42181,10 @@
         <v>84</v>
       </c>
       <c r="M638" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N638" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O638" s="4">
         <v>0.7</v>
@@ -42208,13 +42206,13 @@
       </c>
     </row>
     <row r="639" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A639" s="5">
+      <c r="A639" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B639" s="5">
+      <c r="B639" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C639" s="5">
+      <c r="C639" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D639" t="s">
@@ -42245,10 +42243,10 @@
         <v>84</v>
       </c>
       <c r="M639" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N639" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O639" s="4">
         <v>0.7</v>
@@ -42270,13 +42268,13 @@
       </c>
     </row>
     <row r="640" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A640" s="5">
+      <c r="A640" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B640" s="5">
+      <c r="B640" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C640" s="5">
+      <c r="C640" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D640" t="s">
@@ -42307,10 +42305,10 @@
         <v>84</v>
       </c>
       <c r="M640" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N640" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O640" s="4">
         <v>0.7</v>
@@ -42332,13 +42330,13 @@
       </c>
     </row>
     <row r="641" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A641" s="5">
+      <c r="A641" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B641" s="5">
+      <c r="B641" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C641" s="5">
+      <c r="C641" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D641" t="s">
@@ -42369,10 +42367,10 @@
         <v>84</v>
       </c>
       <c r="M641" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N641" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O641" s="4">
         <v>0.7</v>
@@ -42394,13 +42392,13 @@
       </c>
     </row>
     <row r="642" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A642" s="5">
+      <c r="A642" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B642" s="5">
+      <c r="B642" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C642" s="5">
+      <c r="C642" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D642" t="s">
@@ -42431,10 +42429,10 @@
         <v>84</v>
       </c>
       <c r="M642" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N642" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O642" s="4">
         <v>0.7</v>
@@ -42456,13 +42454,13 @@
       </c>
     </row>
     <row r="643" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A643" s="5">
+      <c r="A643" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B643" s="5">
+      <c r="B643" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C643" s="5">
+      <c r="C643" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D643" t="s">
@@ -42493,10 +42491,10 @@
         <v>84</v>
       </c>
       <c r="M643" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N643" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O643" s="4">
         <v>0.7</v>
@@ -42518,13 +42516,13 @@
       </c>
     </row>
     <row r="644" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A644" s="5">
+      <c r="A644" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B644" s="5">
+      <c r="B644" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C644" s="5">
+      <c r="C644" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D644" t="s">
@@ -42555,10 +42553,10 @@
         <v>84</v>
       </c>
       <c r="M644" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N644" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O644" s="4">
         <v>0.7</v>
@@ -42580,13 +42578,13 @@
       </c>
     </row>
     <row r="645" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A645" s="5">
+      <c r="A645" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B645" s="5">
+      <c r="B645" s="2">
         <v>0.64652777777777781</v>
       </c>
-      <c r="C645" s="5">
+      <c r="C645" s="2">
         <v>0.22986111111111113</v>
       </c>
       <c r="D645" t="s">
@@ -42617,10 +42615,10 @@
         <v>84</v>
       </c>
       <c r="M645" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="N645" s="3">
-        <v>45727</v>
+        <v>45880</v>
       </c>
       <c r="O645" s="4">
         <v>0.7</v>
